--- a/data/exported_python/graph_reduced.xlsx
+++ b/data/exported_python/graph_reduced.xlsx
@@ -4427,7 +4427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O194"/>
+  <dimension ref="A1:W194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4506,6 +4506,46 @@
           <t>id_target2</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>color_hex</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>color_name</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>weight_in</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>weight_out</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>is_one_time</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>is_never</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -4555,6 +4595,32 @@
       <c r="O2" t="n">
         <v>0</v>
       </c>
+      <c r="P2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Hallfred</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>#191970</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>midnightblue</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -4604,6 +4670,32 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
+      <c r="P3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Hallfred</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>#191970</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>midnightblue</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -4653,6 +4745,32 @@
       <c r="O4" t="n">
         <v>2</v>
       </c>
+      <c r="P4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Hallfred</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>#191970</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>midnightblue</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -4702,6 +4820,32 @@
       <c r="O5" t="n">
         <v>3</v>
       </c>
+      <c r="P5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Hallfred</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>#191970</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>midnightblue</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -4751,6 +4895,32 @@
       <c r="O6" t="n">
         <v>4</v>
       </c>
+      <c r="P6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Hallfred</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>#191970</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>midnightblue</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4800,6 +4970,32 @@
       <c r="O7" t="n">
         <v>110</v>
       </c>
+      <c r="P7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Hallfred</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>#191970</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>midnightblue</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -4849,6 +5045,32 @@
       <c r="O8" t="n">
         <v>3</v>
       </c>
+      <c r="P8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>26</v>
+      </c>
+      <c r="U8" t="n">
+        <v>23</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -4898,6 +5120,32 @@
       <c r="O9" t="n">
         <v>4</v>
       </c>
+      <c r="P9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>26</v>
+      </c>
+      <c r="U9" t="n">
+        <v>23</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -4947,6 +5195,32 @@
       <c r="O10" t="n">
         <v>5</v>
       </c>
+      <c r="P10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>26</v>
+      </c>
+      <c r="U10" t="n">
+        <v>23</v>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -4996,6 +5270,32 @@
       <c r="O11" t="n">
         <v>7</v>
       </c>
+      <c r="P11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>26</v>
+      </c>
+      <c r="U11" t="n">
+        <v>23</v>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -5049,6 +5349,32 @@
       <c r="O12" t="n">
         <v>10</v>
       </c>
+      <c r="P12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>26</v>
+      </c>
+      <c r="U12" t="n">
+        <v>23</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -5102,6 +5428,32 @@
       <c r="O13" t="n">
         <v>11</v>
       </c>
+      <c r="P13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>26</v>
+      </c>
+      <c r="U13" t="n">
+        <v>23</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -5151,6 +5503,32 @@
       <c r="O14" t="n">
         <v>12</v>
       </c>
+      <c r="P14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>26</v>
+      </c>
+      <c r="U14" t="n">
+        <v>23</v>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -5200,6 +5578,32 @@
       <c r="O15" t="n">
         <v>16</v>
       </c>
+      <c r="P15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>26</v>
+      </c>
+      <c r="U15" t="n">
+        <v>23</v>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -5253,6 +5657,32 @@
       <c r="O16" t="n">
         <v>17</v>
       </c>
+      <c r="P16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>26</v>
+      </c>
+      <c r="U16" t="n">
+        <v>23</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -5306,6 +5736,32 @@
       <c r="O17" t="n">
         <v>18</v>
       </c>
+      <c r="P17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>26</v>
+      </c>
+      <c r="U17" t="n">
+        <v>23</v>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -5359,6 +5815,32 @@
       <c r="O18" t="n">
         <v>19</v>
       </c>
+      <c r="P18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>26</v>
+      </c>
+      <c r="U18" t="n">
+        <v>23</v>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -5412,6 +5894,32 @@
       <c r="O19" t="n">
         <v>20</v>
       </c>
+      <c r="P19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>26</v>
+      </c>
+      <c r="U19" t="n">
+        <v>23</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -5461,6 +5969,32 @@
       <c r="O20" t="n">
         <v>21</v>
       </c>
+      <c r="P20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>26</v>
+      </c>
+      <c r="U20" t="n">
+        <v>23</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -5514,6 +6048,32 @@
       <c r="O21" t="n">
         <v>22</v>
       </c>
+      <c r="P21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>26</v>
+      </c>
+      <c r="U21" t="n">
+        <v>23</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -5567,6 +6127,32 @@
       <c r="O22" t="n">
         <v>23</v>
       </c>
+      <c r="P22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>26</v>
+      </c>
+      <c r="U22" t="n">
+        <v>23</v>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -5620,6 +6206,32 @@
       <c r="O23" t="n">
         <v>24</v>
       </c>
+      <c r="P23" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>26</v>
+      </c>
+      <c r="U23" t="n">
+        <v>23</v>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -5677,6 +6289,32 @@
       <c r="O24" t="n">
         <v>25</v>
       </c>
+      <c r="P24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>26</v>
+      </c>
+      <c r="U24" t="n">
+        <v>23</v>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -5730,6 +6368,32 @@
       <c r="O25" t="n">
         <v>28</v>
       </c>
+      <c r="P25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>26</v>
+      </c>
+      <c r="U25" t="n">
+        <v>23</v>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -5779,6 +6443,32 @@
       <c r="O26" t="n">
         <v>29</v>
       </c>
+      <c r="P26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>26</v>
+      </c>
+      <c r="U26" t="n">
+        <v>23</v>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5832,6 +6522,32 @@
       <c r="O27" t="n">
         <v>40</v>
       </c>
+      <c r="P27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>26</v>
+      </c>
+      <c r="U27" t="n">
+        <v>23</v>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5889,6 +6605,32 @@
       <c r="O28" t="n">
         <v>41</v>
       </c>
+      <c r="P28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>26</v>
+      </c>
+      <c r="U28" t="n">
+        <v>23</v>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5946,6 +6688,32 @@
       <c r="O29" t="n">
         <v>44</v>
       </c>
+      <c r="P29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>26</v>
+      </c>
+      <c r="U29" t="n">
+        <v>23</v>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -6003,6 +6771,32 @@
       <c r="O30" t="n">
         <v>45</v>
       </c>
+      <c r="P30" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>26</v>
+      </c>
+      <c r="U30" t="n">
+        <v>23</v>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -6060,6 +6854,32 @@
       <c r="O31" t="n">
         <v>46</v>
       </c>
+      <c r="P31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>26</v>
+      </c>
+      <c r="U31" t="n">
+        <v>23</v>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -6117,6 +6937,32 @@
       <c r="O32" t="n">
         <v>47</v>
       </c>
+      <c r="P32" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>26</v>
+      </c>
+      <c r="U32" t="n">
+        <v>23</v>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6174,6 +7020,32 @@
       <c r="O33" t="n">
         <v>48</v>
       </c>
+      <c r="P33" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>26</v>
+      </c>
+      <c r="U33" t="n">
+        <v>23</v>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6231,6 +7103,32 @@
       <c r="O34" t="n">
         <v>49</v>
       </c>
+      <c r="P34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>26</v>
+      </c>
+      <c r="U34" t="n">
+        <v>23</v>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6288,6 +7186,32 @@
       <c r="O35" t="n">
         <v>52</v>
       </c>
+      <c r="P35" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>26</v>
+      </c>
+      <c r="U35" t="n">
+        <v>23</v>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6345,6 +7269,32 @@
       <c r="O36" t="n">
         <v>53</v>
       </c>
+      <c r="P36" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>26</v>
+      </c>
+      <c r="U36" t="n">
+        <v>23</v>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6402,6 +7352,32 @@
       <c r="O37" t="n">
         <v>61</v>
       </c>
+      <c r="P37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>26</v>
+      </c>
+      <c r="U37" t="n">
+        <v>23</v>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6459,6 +7435,32 @@
       <c r="O38" t="n">
         <v>62</v>
       </c>
+      <c r="P38" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>26</v>
+      </c>
+      <c r="U38" t="n">
+        <v>23</v>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -6516,6 +7518,32 @@
       <c r="O39" t="n">
         <v>66</v>
       </c>
+      <c r="P39" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>26</v>
+      </c>
+      <c r="U39" t="n">
+        <v>23</v>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -6573,6 +7601,32 @@
       <c r="O40" t="n">
         <v>67</v>
       </c>
+      <c r="P40" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>26</v>
+      </c>
+      <c r="U40" t="n">
+        <v>23</v>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -6630,6 +7684,32 @@
       <c r="O41" t="n">
         <v>68</v>
       </c>
+      <c r="P41" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>26</v>
+      </c>
+      <c r="U41" t="n">
+        <v>23</v>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -6687,6 +7767,32 @@
       <c r="O42" t="n">
         <v>69</v>
       </c>
+      <c r="P42" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>26</v>
+      </c>
+      <c r="U42" t="n">
+        <v>23</v>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -6744,6 +7850,32 @@
       <c r="O43" t="n">
         <v>70</v>
       </c>
+      <c r="P43" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>26</v>
+      </c>
+      <c r="U43" t="n">
+        <v>23</v>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -6801,6 +7933,32 @@
       <c r="O44" t="n">
         <v>71</v>
       </c>
+      <c r="P44" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>26</v>
+      </c>
+      <c r="U44" t="n">
+        <v>23</v>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -6858,6 +8016,32 @@
       <c r="O45" t="n">
         <v>74</v>
       </c>
+      <c r="P45" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>26</v>
+      </c>
+      <c r="U45" t="n">
+        <v>23</v>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -6915,6 +8099,32 @@
       <c r="O46" t="n">
         <v>75</v>
       </c>
+      <c r="P46" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>26</v>
+      </c>
+      <c r="U46" t="n">
+        <v>23</v>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -6972,6 +8182,32 @@
       <c r="O47" t="n">
         <v>76</v>
       </c>
+      <c r="P47" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>26</v>
+      </c>
+      <c r="U47" t="n">
+        <v>23</v>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -7025,6 +8261,32 @@
       <c r="O48" t="n">
         <v>83</v>
       </c>
+      <c r="P48" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>26</v>
+      </c>
+      <c r="U48" t="n">
+        <v>23</v>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -7074,6 +8336,32 @@
       <c r="O49" t="n">
         <v>84</v>
       </c>
+      <c r="P49" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>26</v>
+      </c>
+      <c r="U49" t="n">
+        <v>23</v>
+      </c>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -7127,6 +8415,32 @@
       <c r="O50" t="n">
         <v>85</v>
       </c>
+      <c r="P50" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>26</v>
+      </c>
+      <c r="U50" t="n">
+        <v>23</v>
+      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -7184,6 +8498,32 @@
       <c r="O51" t="n">
         <v>85</v>
       </c>
+      <c r="P51" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>26</v>
+      </c>
+      <c r="U51" t="n">
+        <v>23</v>
+      </c>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -7237,6 +8577,32 @@
       <c r="O52" t="n">
         <v>111</v>
       </c>
+      <c r="P52" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Hrafnkel</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>#0000FF</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>26</v>
+      </c>
+      <c r="U52" t="n">
+        <v>23</v>
+      </c>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -7286,6 +8652,32 @@
       <c r="O53" t="n">
         <v>0</v>
       </c>
+      <c r="P53" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Arnthrud</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -7335,6 +8727,32 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
+      <c r="P54" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Arnthrud</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>2</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -7384,6 +8802,32 @@
       <c r="O55" t="n">
         <v>112</v>
       </c>
+      <c r="P55" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Arnthrud</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>2</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -7433,6 +8877,34 @@
       <c r="O56" t="n">
         <v>2</v>
       </c>
+      <c r="P56" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1</v>
+      </c>
+      <c r="W56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -7482,6 +8954,34 @@
       <c r="O57" t="n">
         <v>113</v>
       </c>
+      <c r="P57" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1</v>
+      </c>
+      <c r="W57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -7531,6 +9031,32 @@
       <c r="O58" t="n">
         <v>83</v>
       </c>
+      <c r="P58" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Thorir</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>#6495ED</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>cornflowerblue</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>2</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -7580,6 +9106,32 @@
       <c r="O59" t="n">
         <v>114</v>
       </c>
+      <c r="P59" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Thorir</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>#6495ED</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>cornflowerblue</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>2</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -7629,6 +9181,32 @@
       <c r="O60" t="n">
         <v>84</v>
       </c>
+      <c r="P60" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Asbjorn</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>#00BFFF</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>deepskyblue</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>2</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -7678,6 +9256,32 @@
       <c r="O61" t="n">
         <v>115</v>
       </c>
+      <c r="P61" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Asbjorn</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>#00BFFF</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>deepskyblue</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>2</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -7727,6 +9331,32 @@
       <c r="O62" t="n">
         <v>5</v>
       </c>
+      <c r="P62" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Frey</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>#FFD700</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -7776,6 +9406,32 @@
       <c r="O63" t="n">
         <v>31</v>
       </c>
+      <c r="P63" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Frey</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>#FFD700</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -7825,6 +9481,32 @@
       <c r="O64" t="n">
         <v>116</v>
       </c>
+      <c r="P64" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Frey</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>#FFD700</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -7878,6 +9560,32 @@
       <c r="O65" t="n">
         <v>26</v>
       </c>
+      <c r="P65" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>22</v>
+      </c>
+      <c r="U65" t="n">
+        <v>16</v>
+      </c>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -7935,6 +9643,32 @@
       <c r="O66" t="n">
         <v>27</v>
       </c>
+      <c r="P66" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>22</v>
+      </c>
+      <c r="U66" t="n">
+        <v>16</v>
+      </c>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7988,6 +9722,32 @@
       <c r="O67" t="n">
         <v>28</v>
       </c>
+      <c r="P67" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>22</v>
+      </c>
+      <c r="U67" t="n">
+        <v>16</v>
+      </c>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -8037,6 +9797,32 @@
       <c r="O68" t="n">
         <v>29</v>
       </c>
+      <c r="P68" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>22</v>
+      </c>
+      <c r="U68" t="n">
+        <v>16</v>
+      </c>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -8086,6 +9872,32 @@
       <c r="O69" t="n">
         <v>30</v>
       </c>
+      <c r="P69" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>22</v>
+      </c>
+      <c r="U69" t="n">
+        <v>16</v>
+      </c>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -8135,6 +9947,32 @@
       <c r="O70" t="n">
         <v>32</v>
       </c>
+      <c r="P70" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>22</v>
+      </c>
+      <c r="U70" t="n">
+        <v>16</v>
+      </c>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -8188,6 +10026,32 @@
       <c r="O71" t="n">
         <v>36</v>
       </c>
+      <c r="P71" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>22</v>
+      </c>
+      <c r="U71" t="n">
+        <v>16</v>
+      </c>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -8245,6 +10109,32 @@
       <c r="O72" t="n">
         <v>38</v>
       </c>
+      <c r="P72" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>22</v>
+      </c>
+      <c r="U72" t="n">
+        <v>16</v>
+      </c>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -8302,6 +10192,32 @@
       <c r="O73" t="n">
         <v>40</v>
       </c>
+      <c r="P73" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>22</v>
+      </c>
+      <c r="U73" t="n">
+        <v>16</v>
+      </c>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -8359,6 +10275,32 @@
       <c r="O74" t="n">
         <v>41</v>
       </c>
+      <c r="P74" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>22</v>
+      </c>
+      <c r="U74" t="n">
+        <v>16</v>
+      </c>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -8416,6 +10358,32 @@
       <c r="O75" t="n">
         <v>42</v>
       </c>
+      <c r="P75" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>22</v>
+      </c>
+      <c r="U75" t="n">
+        <v>16</v>
+      </c>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8473,6 +10441,32 @@
       <c r="O76" t="n">
         <v>43</v>
       </c>
+      <c r="P76" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>22</v>
+      </c>
+      <c r="U76" t="n">
+        <v>16</v>
+      </c>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -8530,6 +10524,32 @@
       <c r="O77" t="n">
         <v>44</v>
       </c>
+      <c r="P77" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>22</v>
+      </c>
+      <c r="U77" t="n">
+        <v>16</v>
+      </c>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -8587,6 +10607,32 @@
       <c r="O78" t="n">
         <v>50</v>
       </c>
+      <c r="P78" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>22</v>
+      </c>
+      <c r="U78" t="n">
+        <v>16</v>
+      </c>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -8644,6 +10690,32 @@
       <c r="O79" t="n">
         <v>51</v>
       </c>
+      <c r="P79" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>22</v>
+      </c>
+      <c r="U79" t="n">
+        <v>16</v>
+      </c>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -8701,6 +10773,32 @@
       <c r="O80" t="n">
         <v>52</v>
       </c>
+      <c r="P80" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>22</v>
+      </c>
+      <c r="U80" t="n">
+        <v>16</v>
+      </c>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -8758,6 +10856,32 @@
       <c r="O81" t="n">
         <v>53</v>
       </c>
+      <c r="P81" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>22</v>
+      </c>
+      <c r="U81" t="n">
+        <v>16</v>
+      </c>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -8815,6 +10939,32 @@
       <c r="O82" t="n">
         <v>54</v>
       </c>
+      <c r="P82" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>22</v>
+      </c>
+      <c r="U82" t="n">
+        <v>16</v>
+      </c>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -8872,6 +11022,32 @@
       <c r="O83" t="n">
         <v>56</v>
       </c>
+      <c r="P83" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>22</v>
+      </c>
+      <c r="U83" t="n">
+        <v>16</v>
+      </c>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -8929,6 +11105,32 @@
       <c r="O84" t="n">
         <v>57</v>
       </c>
+      <c r="P84" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>22</v>
+      </c>
+      <c r="U84" t="n">
+        <v>16</v>
+      </c>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -8986,6 +11188,32 @@
       <c r="O85" t="n">
         <v>59</v>
       </c>
+      <c r="P85" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>22</v>
+      </c>
+      <c r="U85" t="n">
+        <v>16</v>
+      </c>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -9043,6 +11271,32 @@
       <c r="O86" t="n">
         <v>60</v>
       </c>
+      <c r="P86" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>22</v>
+      </c>
+      <c r="U86" t="n">
+        <v>16</v>
+      </c>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -9100,6 +11354,32 @@
       <c r="O87" t="n">
         <v>61</v>
       </c>
+      <c r="P87" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>22</v>
+      </c>
+      <c r="U87" t="n">
+        <v>16</v>
+      </c>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -9157,6 +11437,32 @@
       <c r="O88" t="n">
         <v>62</v>
       </c>
+      <c r="P88" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>22</v>
+      </c>
+      <c r="U88" t="n">
+        <v>16</v>
+      </c>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -9214,6 +11520,32 @@
       <c r="O89" t="n">
         <v>63</v>
       </c>
+      <c r="P89" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>22</v>
+      </c>
+      <c r="U89" t="n">
+        <v>16</v>
+      </c>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -9271,6 +11603,32 @@
       <c r="O90" t="n">
         <v>64</v>
       </c>
+      <c r="P90" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>22</v>
+      </c>
+      <c r="U90" t="n">
+        <v>16</v>
+      </c>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -9328,6 +11686,32 @@
       <c r="O91" t="n">
         <v>73</v>
       </c>
+      <c r="P91" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>22</v>
+      </c>
+      <c r="U91" t="n">
+        <v>16</v>
+      </c>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -9385,6 +11769,32 @@
       <c r="O92" t="n">
         <v>75</v>
       </c>
+      <c r="P92" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>22</v>
+      </c>
+      <c r="U92" t="n">
+        <v>16</v>
+      </c>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -9442,6 +11852,32 @@
       <c r="O93" t="n">
         <v>76</v>
       </c>
+      <c r="P93" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>22</v>
+      </c>
+      <c r="U93" t="n">
+        <v>16</v>
+      </c>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -9499,6 +11935,32 @@
       <c r="O94" t="n">
         <v>77</v>
       </c>
+      <c r="P94" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>22</v>
+      </c>
+      <c r="U94" t="n">
+        <v>16</v>
+      </c>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -9552,6 +12014,32 @@
       <c r="O95" t="n">
         <v>78</v>
       </c>
+      <c r="P95" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>22</v>
+      </c>
+      <c r="U95" t="n">
+        <v>16</v>
+      </c>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -9601,6 +12089,32 @@
       <c r="O96" t="n">
         <v>79</v>
       </c>
+      <c r="P96" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>22</v>
+      </c>
+      <c r="U96" t="n">
+        <v>16</v>
+      </c>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -9650,6 +12164,32 @@
       <c r="O97" t="n">
         <v>80</v>
       </c>
+      <c r="P97" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>22</v>
+      </c>
+      <c r="U97" t="n">
+        <v>16</v>
+      </c>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -9699,6 +12239,32 @@
       <c r="O98" t="n">
         <v>81</v>
       </c>
+      <c r="P98" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>22</v>
+      </c>
+      <c r="U98" t="n">
+        <v>16</v>
+      </c>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -9748,6 +12314,32 @@
       <c r="O99" t="n">
         <v>82</v>
       </c>
+      <c r="P99" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>22</v>
+      </c>
+      <c r="U99" t="n">
+        <v>16</v>
+      </c>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -9797,6 +12389,32 @@
       <c r="O100" t="n">
         <v>117</v>
       </c>
+      <c r="P100" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>#DC143C</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>crimson</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>22</v>
+      </c>
+      <c r="U100" t="n">
+        <v>16</v>
+      </c>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -9846,6 +12464,32 @@
       <c r="O101" t="n">
         <v>6</v>
       </c>
+      <c r="P101" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Eyvind</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>#FA8072</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>salmon</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>4</v>
+      </c>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -9899,6 +12543,32 @@
       <c r="O102" t="n">
         <v>63</v>
       </c>
+      <c r="P102" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Eyvind</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>#FA8072</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>salmon</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>4</v>
+      </c>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -9956,6 +12626,32 @@
       <c r="O103" t="n">
         <v>64</v>
       </c>
+      <c r="P103" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Eyvind</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>#FA8072</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>salmon</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>4</v>
+      </c>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -10013,6 +12709,32 @@
       <c r="O104" t="n">
         <v>65</v>
       </c>
+      <c r="P104" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Eyvind</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>#FA8072</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>salmon</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>4</v>
+      </c>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -10070,6 +12792,32 @@
       <c r="O105" t="n">
         <v>67</v>
       </c>
+      <c r="P105" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Eyvind</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>#FA8072</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>salmon</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>4</v>
+      </c>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -10127,6 +12875,32 @@
       <c r="O106" t="n">
         <v>72</v>
       </c>
+      <c r="P106" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Eyvind</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>#FA8072</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>salmon</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>4</v>
+      </c>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -10184,6 +12958,32 @@
       <c r="O107" t="n">
         <v>74</v>
       </c>
+      <c r="P107" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Eyvind</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>#FA8072</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>salmon</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>4</v>
+      </c>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -10237,6 +13037,32 @@
       <c r="O108" t="n">
         <v>118</v>
       </c>
+      <c r="P108" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Eyvind</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>#FA8072</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>salmon</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>4</v>
+      </c>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -10286,6 +13112,32 @@
       <c r="O109" t="n">
         <v>6</v>
       </c>
+      <c r="P109" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>king of Greeks</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -10339,6 +13191,32 @@
       <c r="O110" t="n">
         <v>86</v>
       </c>
+      <c r="P110" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>king of Greeks</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -10392,6 +13270,32 @@
       <c r="O111" t="n">
         <v>119</v>
       </c>
+      <c r="P111" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>king of Greeks</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -10441,6 +13345,32 @@
       <c r="O112" t="n">
         <v>7</v>
       </c>
+      <c r="P112" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Freyfaxi</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>#FFD700</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>0</v>
+      </c>
+      <c r="U112" t="n">
+        <v>3</v>
+      </c>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -10490,6 +13420,32 @@
       <c r="O113" t="n">
         <v>14</v>
       </c>
+      <c r="P113" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Freyfaxi</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>#FFD700</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>3</v>
+      </c>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -10543,6 +13499,32 @@
       <c r="O114" t="n">
         <v>19</v>
       </c>
+      <c r="P114" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>Freyfaxi</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>#FFD700</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>3</v>
+      </c>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -10600,6 +13582,32 @@
       <c r="O115" t="n">
         <v>55</v>
       </c>
+      <c r="P115" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Freyfaxi</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>#FFD700</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U115" t="n">
+        <v>3</v>
+      </c>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -10657,6 +13665,32 @@
       <c r="O116" t="n">
         <v>58</v>
       </c>
+      <c r="P116" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>Freyfaxi</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>#FFD700</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>0</v>
+      </c>
+      <c r="U116" t="n">
+        <v>3</v>
+      </c>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -10710,6 +13744,32 @@
       <c r="O117" t="n">
         <v>120</v>
       </c>
+      <c r="P117" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>Freyfaxi</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>#FFD700</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>0</v>
+      </c>
+      <c r="U117" t="n">
+        <v>3</v>
+      </c>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -10763,6 +13823,32 @@
       <c r="O118" t="n">
         <v>8</v>
       </c>
+      <c r="P118" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Thorbjorn</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>#CD5C5C</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>indianred</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>5</v>
+      </c>
+      <c r="U118" t="n">
+        <v>4</v>
+      </c>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -10816,6 +13902,32 @@
       <c r="O119" t="n">
         <v>9</v>
       </c>
+      <c r="P119" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Thorbjorn</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>#CD5C5C</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>indianred</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>5</v>
+      </c>
+      <c r="U119" t="n">
+        <v>4</v>
+      </c>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -10869,6 +13981,32 @@
       <c r="O120" t="n">
         <v>24</v>
       </c>
+      <c r="P120" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Thorbjorn</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>#CD5C5C</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>indianred</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>5</v>
+      </c>
+      <c r="U120" t="n">
+        <v>4</v>
+      </c>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -10926,6 +14064,32 @@
       <c r="O121" t="n">
         <v>25</v>
       </c>
+      <c r="P121" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Thorbjorn</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>#CD5C5C</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>indianred</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>5</v>
+      </c>
+      <c r="U121" t="n">
+        <v>4</v>
+      </c>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -10983,6 +14147,32 @@
       <c r="O122" t="n">
         <v>26</v>
       </c>
+      <c r="P122" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>Thorbjorn</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>#CD5C5C</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>indianred</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>5</v>
+      </c>
+      <c r="U122" t="n">
+        <v>4</v>
+      </c>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -11040,6 +14230,32 @@
       <c r="O123" t="n">
         <v>27</v>
       </c>
+      <c r="P123" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>Thorbjorn</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>#CD5C5C</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>indianred</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>5</v>
+      </c>
+      <c r="U123" t="n">
+        <v>4</v>
+      </c>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -11093,6 +14309,32 @@
       <c r="O124" t="n">
         <v>33</v>
       </c>
+      <c r="P124" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>Thorbjorn</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>#CD5C5C</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>indianred</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>5</v>
+      </c>
+      <c r="U124" t="n">
+        <v>4</v>
+      </c>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -11146,6 +14388,32 @@
       <c r="O125" t="n">
         <v>60</v>
       </c>
+      <c r="P125" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>Thorbjorn</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>#CD5C5C</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>indianred</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>5</v>
+      </c>
+      <c r="U125" t="n">
+        <v>4</v>
+      </c>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -11199,6 +14467,32 @@
       <c r="O126" t="n">
         <v>121</v>
       </c>
+      <c r="P126" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>Thorbjorn</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>#CD5C5C</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>indianred</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>5</v>
+      </c>
+      <c r="U126" t="n">
+        <v>4</v>
+      </c>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -11252,6 +14546,32 @@
       <c r="O127" t="n">
         <v>8</v>
       </c>
+      <c r="P127" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>Einar</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>#8B0000</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>darkred</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>7</v>
+      </c>
+      <c r="U127" t="n">
+        <v>6</v>
+      </c>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -11305,6 +14625,32 @@
       <c r="O128" t="n">
         <v>9</v>
       </c>
+      <c r="P128" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>Einar</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>#8B0000</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>darkred</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>7</v>
+      </c>
+      <c r="U128" t="n">
+        <v>6</v>
+      </c>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -11358,6 +14704,32 @@
       <c r="O129" t="n">
         <v>10</v>
       </c>
+      <c r="P129" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>Einar</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>#8B0000</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>darkred</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>7</v>
+      </c>
+      <c r="U129" t="n">
+        <v>6</v>
+      </c>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -11411,6 +14783,32 @@
       <c r="O130" t="n">
         <v>11</v>
       </c>
+      <c r="P130" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>Einar</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>#8B0000</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>darkred</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>7</v>
+      </c>
+      <c r="U130" t="n">
+        <v>6</v>
+      </c>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -11460,6 +14858,32 @@
       <c r="O131" t="n">
         <v>12</v>
       </c>
+      <c r="P131" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>Einar</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>#8B0000</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>darkred</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>7</v>
+      </c>
+      <c r="U131" t="n">
+        <v>6</v>
+      </c>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -11513,6 +14937,32 @@
       <c r="O132" t="n">
         <v>13</v>
       </c>
+      <c r="P132" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>Einar</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>#8B0000</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>darkred</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>7</v>
+      </c>
+      <c r="U132" t="n">
+        <v>6</v>
+      </c>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -11566,6 +15016,32 @@
       <c r="O133" t="n">
         <v>14</v>
       </c>
+      <c r="P133" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>Einar</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>#8B0000</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>darkred</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>7</v>
+      </c>
+      <c r="U133" t="n">
+        <v>6</v>
+      </c>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -11615,6 +15091,32 @@
       <c r="O134" t="n">
         <v>15</v>
       </c>
+      <c r="P134" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>Einar</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>#8B0000</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>darkred</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>7</v>
+      </c>
+      <c r="U134" t="n">
+        <v>6</v>
+      </c>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -11664,6 +15166,32 @@
       <c r="O135" t="n">
         <v>20</v>
       </c>
+      <c r="P135" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>Einar</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>#8B0000</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>darkred</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>7</v>
+      </c>
+      <c r="U135" t="n">
+        <v>6</v>
+      </c>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -11713,6 +15241,32 @@
       <c r="O136" t="n">
         <v>21</v>
       </c>
+      <c r="P136" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>Einar</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>#8B0000</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>darkred</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>7</v>
+      </c>
+      <c r="U136" t="n">
+        <v>6</v>
+      </c>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -11766,6 +15320,32 @@
       <c r="O137" t="n">
         <v>22</v>
       </c>
+      <c r="P137" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>Einar</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>#8B0000</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>darkred</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>7</v>
+      </c>
+      <c r="U137" t="n">
+        <v>6</v>
+      </c>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -11819,6 +15399,32 @@
       <c r="O138" t="n">
         <v>23</v>
       </c>
+      <c r="P138" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>Einar</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>#8B0000</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>darkred</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>7</v>
+      </c>
+      <c r="U138" t="n">
+        <v>6</v>
+      </c>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -11868,6 +15474,32 @@
       <c r="O139" t="n">
         <v>122</v>
       </c>
+      <c r="P139" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>Einar</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>#8B0000</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>darkred</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>7</v>
+      </c>
+      <c r="U139" t="n">
+        <v>6</v>
+      </c>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -11921,6 +15553,32 @@
       <c r="O140" t="n">
         <v>13</v>
       </c>
+      <c r="P140" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>shepherds</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>0</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2</v>
+      </c>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -11974,6 +15632,32 @@
       <c r="O141" t="n">
         <v>15</v>
       </c>
+      <c r="P141" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>shepherds</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>0</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2</v>
+      </c>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -12023,6 +15707,32 @@
       <c r="O142" t="n">
         <v>123</v>
       </c>
+      <c r="P142" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>shepherds</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>0</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2</v>
+      </c>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -12072,6 +15782,32 @@
       <c r="O143" t="n">
         <v>16</v>
       </c>
+      <c r="P143" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>mealtime servant</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>1</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2</v>
+      </c>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -12125,6 +15861,32 @@
       <c r="O144" t="n">
         <v>17</v>
       </c>
+      <c r="P144" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>mealtime servant</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>1</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2</v>
+      </c>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -12178,6 +15940,32 @@
       <c r="O145" t="n">
         <v>18</v>
       </c>
+      <c r="P145" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>mealtime servant</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>1</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2</v>
+      </c>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -12227,6 +16015,32 @@
       <c r="O146" t="n">
         <v>124</v>
       </c>
+      <c r="P146" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>mealtime servant</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>1</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2</v>
+      </c>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -12276,6 +16090,32 @@
       <c r="O147" t="n">
         <v>30</v>
       </c>
+      <c r="P147" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>Thorkel</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>#228B22</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>forestgreen</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>10</v>
+      </c>
+      <c r="U147" t="n">
+        <v>4</v>
+      </c>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -12325,6 +16165,32 @@
       <c r="O148" t="n">
         <v>31</v>
       </c>
+      <c r="P148" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>Thorkel</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>#228B22</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>forestgreen</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>10</v>
+      </c>
+      <c r="U148" t="n">
+        <v>4</v>
+      </c>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -12374,6 +16240,32 @@
       <c r="O149" t="n">
         <v>32</v>
       </c>
+      <c r="P149" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>Thorkel</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>#228B22</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>forestgreen</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>10</v>
+      </c>
+      <c r="U149" t="n">
+        <v>4</v>
+      </c>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -12423,6 +16315,32 @@
       <c r="O150" t="n">
         <v>34</v>
       </c>
+      <c r="P150" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>Thorkel</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>#228B22</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>forestgreen</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>10</v>
+      </c>
+      <c r="U150" t="n">
+        <v>4</v>
+      </c>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -12472,6 +16390,32 @@
       <c r="O151" t="n">
         <v>35</v>
       </c>
+      <c r="P151" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Thorkel</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>#228B22</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>forestgreen</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>10</v>
+      </c>
+      <c r="U151" t="n">
+        <v>4</v>
+      </c>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -12525,6 +16469,32 @@
       <c r="O152" t="n">
         <v>45</v>
       </c>
+      <c r="P152" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>Thorkel</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>#228B22</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>forestgreen</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>10</v>
+      </c>
+      <c r="U152" t="n">
+        <v>4</v>
+      </c>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -12582,6 +16552,32 @@
       <c r="O153" t="n">
         <v>46</v>
       </c>
+      <c r="P153" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Thorkel</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>#228B22</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>forestgreen</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>10</v>
+      </c>
+      <c r="U153" t="n">
+        <v>4</v>
+      </c>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -12639,6 +16635,32 @@
       <c r="O154" t="n">
         <v>47</v>
       </c>
+      <c r="P154" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>Thorkel</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>#228B22</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>forestgreen</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>10</v>
+      </c>
+      <c r="U154" t="n">
+        <v>4</v>
+      </c>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -12696,6 +16718,32 @@
       <c r="O155" t="n">
         <v>51</v>
       </c>
+      <c r="P155" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>Thorkel</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>#228B22</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>forestgreen</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>10</v>
+      </c>
+      <c r="U155" t="n">
+        <v>4</v>
+      </c>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -12753,6 +16801,32 @@
       <c r="O156" t="n">
         <v>54</v>
       </c>
+      <c r="P156" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>Thorkel</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>#228B22</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>forestgreen</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>10</v>
+      </c>
+      <c r="U156" t="n">
+        <v>4</v>
+      </c>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -12810,6 +16884,32 @@
       <c r="O157" t="n">
         <v>58</v>
       </c>
+      <c r="P157" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>Thorkel</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>#228B22</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>forestgreen</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>10</v>
+      </c>
+      <c r="U157" t="n">
+        <v>4</v>
+      </c>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -12867,6 +16967,32 @@
       <c r="O158" t="n">
         <v>59</v>
       </c>
+      <c r="P158" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>Thorkel</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>#228B22</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>forestgreen</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>10</v>
+      </c>
+      <c r="U158" t="n">
+        <v>4</v>
+      </c>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -12920,6 +17046,32 @@
       <c r="O159" t="n">
         <v>78</v>
       </c>
+      <c r="P159" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>Thorkel</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>#228B22</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>forestgreen</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>10</v>
+      </c>
+      <c r="U159" t="n">
+        <v>4</v>
+      </c>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -12969,6 +17121,32 @@
       <c r="O160" t="n">
         <v>81</v>
       </c>
+      <c r="P160" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>Thorkel</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>#228B22</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>forestgreen</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>10</v>
+      </c>
+      <c r="U160" t="n">
+        <v>4</v>
+      </c>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -13018,6 +17196,32 @@
       <c r="O161" t="n">
         <v>125</v>
       </c>
+      <c r="P161" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>Thorkel</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>#228B22</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>forestgreen</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>10</v>
+      </c>
+      <c r="U161" t="n">
+        <v>4</v>
+      </c>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -13067,6 +17271,32 @@
       <c r="O162" t="n">
         <v>33</v>
       </c>
+      <c r="P162" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T162" t="n">
+        <v>12</v>
+      </c>
+      <c r="U162" t="n">
+        <v>7</v>
+      </c>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -13116,6 +17346,32 @@
       <c r="O163" t="n">
         <v>34</v>
       </c>
+      <c r="P163" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T163" t="n">
+        <v>12</v>
+      </c>
+      <c r="U163" t="n">
+        <v>7</v>
+      </c>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -13165,6 +17421,32 @@
       <c r="O164" t="n">
         <v>35</v>
       </c>
+      <c r="P164" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T164" t="n">
+        <v>12</v>
+      </c>
+      <c r="U164" t="n">
+        <v>7</v>
+      </c>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -13218,6 +17500,32 @@
       <c r="O165" t="n">
         <v>36</v>
       </c>
+      <c r="P165" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T165" t="n">
+        <v>12</v>
+      </c>
+      <c r="U165" t="n">
+        <v>7</v>
+      </c>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -13275,6 +17583,32 @@
       <c r="O166" t="n">
         <v>38</v>
       </c>
+      <c r="P166" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T166" t="n">
+        <v>12</v>
+      </c>
+      <c r="U166" t="n">
+        <v>7</v>
+      </c>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -13332,6 +17666,32 @@
       <c r="O167" t="n">
         <v>42</v>
       </c>
+      <c r="P167" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>12</v>
+      </c>
+      <c r="U167" t="n">
+        <v>7</v>
+      </c>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -13389,6 +17749,32 @@
       <c r="O168" t="n">
         <v>43</v>
       </c>
+      <c r="P168" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>12</v>
+      </c>
+      <c r="U168" t="n">
+        <v>7</v>
+      </c>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -13446,6 +17832,32 @@
       <c r="O169" t="n">
         <v>48</v>
       </c>
+      <c r="P169" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>12</v>
+      </c>
+      <c r="U169" t="n">
+        <v>7</v>
+      </c>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -13503,6 +17915,32 @@
       <c r="O170" t="n">
         <v>49</v>
       </c>
+      <c r="P170" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>12</v>
+      </c>
+      <c r="U170" t="n">
+        <v>7</v>
+      </c>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -13560,6 +17998,32 @@
       <c r="O171" t="n">
         <v>50</v>
       </c>
+      <c r="P171" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>12</v>
+      </c>
+      <c r="U171" t="n">
+        <v>7</v>
+      </c>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -13617,6 +18081,32 @@
       <c r="O172" t="n">
         <v>55</v>
       </c>
+      <c r="P172" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>12</v>
+      </c>
+      <c r="U172" t="n">
+        <v>7</v>
+      </c>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -13674,6 +18164,32 @@
       <c r="O173" t="n">
         <v>57</v>
       </c>
+      <c r="P173" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>12</v>
+      </c>
+      <c r="U173" t="n">
+        <v>7</v>
+      </c>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -13731,6 +18247,32 @@
       <c r="O174" t="n">
         <v>56</v>
       </c>
+      <c r="P174" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>12</v>
+      </c>
+      <c r="U174" t="n">
+        <v>7</v>
+      </c>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -13788,6 +18330,32 @@
       <c r="O175" t="n">
         <v>77</v>
       </c>
+      <c r="P175" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T175" t="n">
+        <v>12</v>
+      </c>
+      <c r="U175" t="n">
+        <v>7</v>
+      </c>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -13841,6 +18409,32 @@
       <c r="O176" t="n">
         <v>79</v>
       </c>
+      <c r="P176" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>12</v>
+      </c>
+      <c r="U176" t="n">
+        <v>7</v>
+      </c>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -13890,6 +18484,32 @@
       <c r="O177" t="n">
         <v>80</v>
       </c>
+      <c r="P177" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>12</v>
+      </c>
+      <c r="U177" t="n">
+        <v>7</v>
+      </c>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -13939,6 +18559,32 @@
       <c r="O178" t="n">
         <v>82</v>
       </c>
+      <c r="P178" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>12</v>
+      </c>
+      <c r="U178" t="n">
+        <v>7</v>
+      </c>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -13992,6 +18638,32 @@
       <c r="O179" t="n">
         <v>86</v>
       </c>
+      <c r="P179" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>12</v>
+      </c>
+      <c r="U179" t="n">
+        <v>7</v>
+      </c>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -14045,6 +18717,32 @@
       <c r="O180" t="n">
         <v>126</v>
       </c>
+      <c r="P180" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>#6B8E23</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>olivedrab</t>
+        </is>
+      </c>
+      <c r="T180" t="n">
+        <v>12</v>
+      </c>
+      <c r="U180" t="n">
+        <v>7</v>
+      </c>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -14098,6 +18796,32 @@
       <c r="O181" t="n">
         <v>65</v>
       </c>
+      <c r="P181" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Eyvind's servant boy</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>#FF4500</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>orangered</t>
+        </is>
+      </c>
+      <c r="T181" t="n">
+        <v>2</v>
+      </c>
+      <c r="U181" t="n">
+        <v>1</v>
+      </c>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -14155,6 +18879,32 @@
       <c r="O182" t="n">
         <v>72</v>
       </c>
+      <c r="P182" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Eyvind's servant boy</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>#FF4500</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>orangered</t>
+        </is>
+      </c>
+      <c r="T182" t="n">
+        <v>2</v>
+      </c>
+      <c r="U182" t="n">
+        <v>1</v>
+      </c>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -14212,6 +18962,32 @@
       <c r="O183" t="n">
         <v>73</v>
       </c>
+      <c r="P183" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Eyvind's servant boy</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>#FF4500</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>orangered</t>
+        </is>
+      </c>
+      <c r="T183" t="n">
+        <v>2</v>
+      </c>
+      <c r="U183" t="n">
+        <v>1</v>
+      </c>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -14265,6 +19041,32 @@
       <c r="O184" t="n">
         <v>127</v>
       </c>
+      <c r="P184" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Eyvind's servant boy</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>#FF4500</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>orangered</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>2</v>
+      </c>
+      <c r="U184" t="n">
+        <v>1</v>
+      </c>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -14318,6 +19120,32 @@
       <c r="O185" t="n">
         <v>66</v>
       </c>
+      <c r="P185" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Servant woman</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>1</v>
+      </c>
+      <c r="U185" t="n">
+        <v>0</v>
+      </c>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -14371,6 +19199,32 @@
       <c r="O186" t="n">
         <v>128</v>
       </c>
+      <c r="P186" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Servant woman</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>#CD853F</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>1</v>
+      </c>
+      <c r="U186" t="n">
+        <v>0</v>
+      </c>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -14424,6 +19278,34 @@
       <c r="O187" t="n">
         <v>68</v>
       </c>
+      <c r="P187" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Sighvat</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>#A9A9A9</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>darkgray</t>
+        </is>
+      </c>
+      <c r="T187" t="n">
+        <v>0</v>
+      </c>
+      <c r="U187" t="n">
+        <v>1</v>
+      </c>
+      <c r="V187" t="n">
+        <v>1</v>
+      </c>
+      <c r="W187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -14477,6 +19359,34 @@
       <c r="O188" t="n">
         <v>129</v>
       </c>
+      <c r="P188" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Sighvat</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>#A9A9A9</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>darkgray</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>0</v>
+      </c>
+      <c r="U188" t="n">
+        <v>1</v>
+      </c>
+      <c r="V188" t="n">
+        <v>1</v>
+      </c>
+      <c r="W188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -14530,6 +19440,34 @@
       <c r="O189" t="n">
         <v>69</v>
       </c>
+      <c r="P189" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Snorri</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>#808080</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>gray</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>0</v>
+      </c>
+      <c r="U189" t="n">
+        <v>1</v>
+      </c>
+      <c r="V189" t="n">
+        <v>1</v>
+      </c>
+      <c r="W189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -14583,6 +19521,34 @@
       <c r="O190" t="n">
         <v>130</v>
       </c>
+      <c r="P190" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Snorri</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>#808080</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>gray</t>
+        </is>
+      </c>
+      <c r="T190" t="n">
+        <v>0</v>
+      </c>
+      <c r="U190" t="n">
+        <v>1</v>
+      </c>
+      <c r="V190" t="n">
+        <v>1</v>
+      </c>
+      <c r="W190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -14636,6 +19602,34 @@
       <c r="O191" t="n">
         <v>70</v>
       </c>
+      <c r="P191" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Thord</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>#D3D3D3</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>lightgray</t>
+        </is>
+      </c>
+      <c r="T191" t="n">
+        <v>0</v>
+      </c>
+      <c r="U191" t="n">
+        <v>1</v>
+      </c>
+      <c r="V191" t="n">
+        <v>1</v>
+      </c>
+      <c r="W191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -14689,6 +19683,34 @@
       <c r="O192" t="n">
         <v>131</v>
       </c>
+      <c r="P192" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Thord</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>#D3D3D3</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>lightgray</t>
+        </is>
+      </c>
+      <c r="T192" t="n">
+        <v>0</v>
+      </c>
+      <c r="U192" t="n">
+        <v>1</v>
+      </c>
+      <c r="V192" t="n">
+        <v>1</v>
+      </c>
+      <c r="W192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -14742,6 +19764,34 @@
       <c r="O193" t="n">
         <v>71</v>
       </c>
+      <c r="P193" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Halli</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>#C0C0C0</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="T193" t="n">
+        <v>0</v>
+      </c>
+      <c r="U193" t="n">
+        <v>1</v>
+      </c>
+      <c r="V193" t="n">
+        <v>1</v>
+      </c>
+      <c r="W193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -14795,6 +19845,34 @@
       <c r="O194" t="n">
         <v>132</v>
       </c>
+      <c r="P194" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Halli</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>#C0C0C0</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="T194" t="n">
+        <v>0</v>
+      </c>
+      <c r="U194" t="n">
+        <v>1</v>
+      </c>
+      <c r="V194" t="n">
+        <v>1</v>
+      </c>
+      <c r="W194" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/exported_python/graph_reduced.xlsx
+++ b/data/exported_python/graph_reduced.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,11 +621,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>fostering</t>
+          <t>ownership</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -1345,7 +1345,7 @@
         <v>18</v>
       </c>
       <c r="I32" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -1531,7 +1531,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2081,10 +2081,10 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I55" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -2092,15 +2092,15 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>summons</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
         <v>12</v>
@@ -2110,14 +2110,14 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>454</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I56" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
@@ -2125,32 +2125,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" t="n">
         <v>12</v>
       </c>
       <c r="F57" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>455</t>
         </is>
       </c>
       <c r="H57" t="n">
+        <v>18</v>
+      </c>
+      <c r="I57" t="n">
         <v>31</v>
-      </c>
-      <c r="I57" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -2158,32 +2158,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>summons</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E58" t="n">
         <v>12</v>
       </c>
       <c r="F58" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>455</t>
         </is>
       </c>
       <c r="H58" t="n">
+        <v>18</v>
+      </c>
+      <c r="I58" t="n">
         <v>29</v>
-      </c>
-      <c r="I58" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="59">
@@ -2191,7 +2191,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>12</v>
       </c>
       <c r="F59" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>18</v>
       </c>
       <c r="I59" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
@@ -2224,32 +2224,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>conversation_neutral</t>
         </is>
       </c>
       <c r="D60" t="n">
+        <v>23</v>
+      </c>
+      <c r="E60" t="n">
         <v>13</v>
       </c>
-      <c r="E60" t="n">
-        <v>12</v>
-      </c>
       <c r="F60" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>456</t>
         </is>
       </c>
       <c r="H60" t="n">
+        <v>9</v>
+      </c>
+      <c r="I60" t="n">
         <v>18</v>
-      </c>
-      <c r="I60" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="61">
@@ -2257,7 +2257,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>13</v>
       </c>
       <c r="F61" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2279,10 +2279,10 @@
         </is>
       </c>
       <c r="H61" t="n">
+        <v>18</v>
+      </c>
+      <c r="I61" t="n">
         <v>9</v>
-      </c>
-      <c r="I61" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -2290,21 +2290,21 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>conversation_neutral</t>
+          <t>invitation</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F62" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>18</v>
       </c>
       <c r="I62" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
@@ -2323,25 +2323,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>invitation</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63" t="n">
         <v>14</v>
       </c>
       <c r="F63" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>460</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2356,32 +2356,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>offer assistance</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E64" t="n">
         <v>14</v>
       </c>
       <c r="F64" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>456</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I64" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
@@ -2389,32 +2389,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>offer assistance</t>
+          <t>insult</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E65" t="n">
         <v>14</v>
       </c>
       <c r="F65" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>457</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I65" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
@@ -2422,32 +2422,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>insult</t>
+          <t>hostility_non-lethal</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E66" t="n">
         <v>14</v>
       </c>
       <c r="F66" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>459</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I66" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -2455,32 +2455,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>hostility_non-lethal</t>
+          <t>summons</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E67" t="n">
         <v>14</v>
       </c>
       <c r="F67" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="H67" t="n">
         <v>9</v>
       </c>
       <c r="I67" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68">
@@ -2488,7 +2488,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>14</v>
       </c>
       <c r="F68" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>9</v>
       </c>
       <c r="I68" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69">
@@ -2521,7 +2521,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>14</v>
       </c>
       <c r="F69" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="I69" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70">
@@ -2554,7 +2554,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>14</v>
       </c>
       <c r="F70" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>9</v>
       </c>
       <c r="I70" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71">
@@ -2587,32 +2587,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>summons</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E71" t="n">
         <v>14</v>
       </c>
       <c r="F71" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>458</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I71" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
@@ -2620,32 +2620,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>request assistance</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E72" t="n">
         <v>14</v>
       </c>
       <c r="F72" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>459</t>
         </is>
       </c>
       <c r="H72" t="n">
         <v>35</v>
       </c>
       <c r="I72" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -2653,21 +2653,21 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>hostility_lethal</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E73" t="n">
         <v>14</v>
       </c>
       <c r="F73" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2675,10 +2675,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
@@ -2686,21 +2686,21 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>hostility_lethal</t>
+          <t>hostility_non-lethal</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E74" t="n">
         <v>14</v>
       </c>
       <c r="F74" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2708,10 +2708,10 @@
         </is>
       </c>
       <c r="H74" t="n">
+        <v>18</v>
+      </c>
+      <c r="I74" t="n">
         <v>9</v>
-      </c>
-      <c r="I74" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="75">
@@ -2719,32 +2719,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>hostility_non-lethal</t>
+          <t>challenge</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E75" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F75" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>460</t>
         </is>
       </c>
       <c r="H75" t="n">
+        <v>9</v>
+      </c>
+      <c r="I75" t="n">
         <v>18</v>
-      </c>
-      <c r="I75" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="76">
@@ -2752,32 +2752,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>challenge</t>
+          <t>request assistance</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E76" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F76" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>461</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I76" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77">
@@ -2785,32 +2785,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
       </c>
       <c r="F77" t="n">
-        <v>75</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
         <v>18</v>
       </c>
       <c r="I77" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -2818,7 +2814,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2832,14 +2828,14 @@
         <v>16</v>
       </c>
       <c r="F78" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
         <v>18</v>
       </c>
       <c r="I78" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79">
@@ -2847,28 +2843,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
       </c>
       <c r="F79" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
+        <v>31</v>
+      </c>
+      <c r="I79" t="n">
         <v>18</v>
-      </c>
-      <c r="I79" t="n">
-        <v>31</v>
       </c>
     </row>
     <row r="80">
@@ -2876,25 +2872,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
       </c>
       <c r="F80" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I80" t="n">
         <v>18</v>
@@ -2905,7 +2901,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2919,11 +2915,11 @@
         <v>16</v>
       </c>
       <c r="F81" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I81" t="n">
         <v>18</v>
@@ -2934,28 +2930,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>inheritance</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
       </c>
       <c r="F82" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I82" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -2963,7 +2959,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2977,14 +2973,14 @@
         <v>16</v>
       </c>
       <c r="F83" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
         <v>9</v>
       </c>
       <c r="I83" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -2992,28 +2988,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>inheritance</t>
+          <t>death_neutral</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
       </c>
       <c r="F84" t="n">
-        <v>82</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
+        <v>83</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
       <c r="H84" t="n">
         <v>9</v>
       </c>
       <c r="I84" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
@@ -3021,73 +3021,69 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>death_neutral</t>
+          <t>hostility_lethal</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E85" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F85" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>455</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I85" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>86</v>
-      </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>hostility_lethal</t>
+          <t>origin</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>999</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="I86" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3101,22 +3097,22 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
         <v>-1</v>
       </c>
       <c r="I87" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B88" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3130,22 +3126,22 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
         <v>-1</v>
       </c>
       <c r="I88" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B89" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3159,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
         <v>-1</v>
       </c>
       <c r="I89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B90" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3188,22 +3184,22 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>2.5</v>
+        <v>80.5</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
         <v>-1</v>
       </c>
       <c r="I90" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B91" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3217,22 +3213,22 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>80.5</v>
+        <v>81.5</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
         <v>-1</v>
       </c>
       <c r="I91" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B92" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3246,22 +3242,22 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>81.5</v>
+        <v>5.5</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
         <v>-1</v>
       </c>
       <c r="I92" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B93" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3275,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>5.5</v>
+        <v>26.5</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
         <v>-1</v>
       </c>
       <c r="I93" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B94" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3304,22 +3300,22 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>26.5</v>
+        <v>6.5</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
         <v>-1</v>
       </c>
       <c r="I94" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B95" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3340,15 +3336,15 @@
         <v>-1</v>
       </c>
       <c r="I95" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B96" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3362,22 +3358,22 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
         <v>-1</v>
       </c>
       <c r="I96" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B97" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3391,22 +3387,22 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
         <v>-1</v>
       </c>
       <c r="I97" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B98" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3427,15 +3423,15 @@
         <v>-1</v>
       </c>
       <c r="I98" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B99" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3449,22 +3445,22 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
         <v>-1</v>
       </c>
       <c r="I99" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B100" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -3478,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
         <v>-1</v>
       </c>
       <c r="I100" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B101" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3507,22 +3503,22 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>16.5</v>
+        <v>31.5</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
         <v>-1</v>
       </c>
       <c r="I101" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B102" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3536,22 +3532,22 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>30.5</v>
+        <v>33.5</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
         <v>-1</v>
       </c>
       <c r="I102" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B103" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3565,22 +3561,22 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>33.5</v>
+        <v>62.5</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
         <v>-1</v>
       </c>
       <c r="I103" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B104" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3594,22 +3590,22 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>62.5</v>
+        <v>63.5</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
         <v>-1</v>
       </c>
       <c r="I104" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B105" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3623,22 +3619,22 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>63.5</v>
+        <v>65.5</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
         <v>-1</v>
       </c>
       <c r="I105" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B106" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3652,22 +3648,22 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>65.5</v>
+        <v>66.5</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
         <v>-1</v>
       </c>
       <c r="I106" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B107" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3681,22 +3677,22 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>66.5</v>
+        <v>67.5</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
         <v>-1</v>
       </c>
       <c r="I107" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B108" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3710,51 +3706,51 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>67.5</v>
+        <v>68.5</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
         <v>-1</v>
       </c>
       <c r="I108" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>origin</t>
+          <t>last_seen</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>68.5</v>
+        <v>5.5</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I109" t="n">
-        <v>42</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3768,11 +3764,11 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>5.5</v>
+        <v>83.5</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I110" t="n">
         <v>-2</v>
@@ -3780,10 +3776,10 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B111" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3797,11 +3793,11 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>83.5</v>
+        <v>2.5</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I111" t="n">
         <v>-2</v>
@@ -3809,10 +3805,10 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B112" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3826,11 +3822,11 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I112" t="n">
         <v>-2</v>
@@ -3838,10 +3834,10 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B113" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3855,11 +3851,11 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>3.5</v>
+        <v>81.5</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I113" t="n">
         <v>-2</v>
@@ -3867,10 +3863,10 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B114" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3884,11 +3880,11 @@
         <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>81.5</v>
+        <v>82.5</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I114" t="n">
         <v>-2</v>
@@ -3896,10 +3892,10 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B115" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3913,11 +3909,11 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>82.5</v>
+        <v>32.5</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="n">
         <v>-2</v>
@@ -3925,10 +3921,10 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B116" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3942,11 +3938,11 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>32.5</v>
+        <v>80.5</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I116" t="n">
         <v>-2</v>
@@ -3954,10 +3950,10 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B117" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3971,11 +3967,11 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>80.5</v>
+        <v>72.5</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I117" t="n">
         <v>-2</v>
@@ -3983,10 +3979,10 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B118" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -4000,11 +3996,11 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>72.5</v>
+        <v>84.5</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I118" t="n">
         <v>-2</v>
@@ -4012,10 +4008,10 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B119" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -4029,11 +4025,11 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>999.5</v>
+        <v>20.5</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I119" t="n">
         <v>-2</v>
@@ -4041,10 +4037,10 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B120" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -4058,11 +4054,11 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>56.5</v>
+        <v>58.5</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I120" t="n">
         <v>-2</v>
@@ -4070,10 +4066,10 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B121" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -4087,11 +4083,11 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>58.5</v>
+        <v>24.5</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I121" t="n">
         <v>-2</v>
@@ -4099,10 +4095,10 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B122" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -4116,11 +4112,11 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>24.5</v>
+        <v>16.5</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I122" t="n">
         <v>-2</v>
@@ -4128,10 +4124,10 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B123" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -4145,11 +4141,11 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I123" t="n">
         <v>-2</v>
@@ -4157,10 +4153,10 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B124" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -4174,11 +4170,11 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>19.5</v>
+        <v>79.5</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I124" t="n">
         <v>-2</v>
@@ -4186,10 +4182,10 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B125" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -4203,11 +4199,11 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>79.5</v>
+        <v>84.5</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I125" t="n">
         <v>-2</v>
@@ -4215,10 +4211,10 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B126" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -4232,11 +4228,11 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>999.5</v>
+        <v>71.5</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I126" t="n">
         <v>-2</v>
@@ -4244,10 +4240,10 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B127" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -4261,11 +4257,11 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>71.5</v>
+        <v>64.5</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I127" t="n">
         <v>-2</v>
@@ -4273,10 +4269,10 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B128" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -4290,11 +4286,11 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>64.5</v>
+        <v>66.5</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I128" t="n">
         <v>-2</v>
@@ -4302,10 +4298,10 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B129" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -4319,11 +4315,11 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>66.5</v>
+        <v>67.5</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I129" t="n">
         <v>-2</v>
@@ -4331,10 +4327,10 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B130" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -4348,11 +4344,11 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>67.5</v>
+        <v>68.5</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I130" t="n">
         <v>-2</v>
@@ -4360,10 +4356,10 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B131" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -4377,42 +4373,13 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>68.5</v>
+        <v>69.5</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I131" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B132" t="n">
-        <v>132</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>last_seen</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>25</v>
-      </c>
-      <c r="E132" t="n">
-        <v>17</v>
-      </c>
-      <c r="F132" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="n">
-        <v>42</v>
-      </c>
-      <c r="I132" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -4427,7 +4394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W194"/>
+  <dimension ref="A1:W192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4555,7 +4522,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -4590,7 +4557,7 @@
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -4950,7 +4917,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -4968,7 +4935,7 @@
         <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P7" t="n">
         <v>7</v>
@@ -5005,7 +4972,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -5040,7 +5007,7 @@
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O8" t="n">
         <v>3</v>
@@ -5254,7 +5221,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>fostering</t>
+          <t>ownership</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -5309,7 +5276,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>fostering</t>
+          <t>ownership</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -6498,7 +6465,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -6520,7 +6487,7 @@
         <v>29</v>
       </c>
       <c r="O27" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P27" t="n">
         <v>9</v>
@@ -6557,7 +6524,7 @@
         <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -6581,7 +6548,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -6600,10 +6567,10 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O28" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P28" t="n">
         <v>9</v>
@@ -6640,7 +6607,7 @@
         <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -6664,7 +6631,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -6683,10 +6650,10 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O29" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P29" t="n">
         <v>9</v>
@@ -6723,7 +6690,7 @@
         <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -6747,7 +6714,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -6766,10 +6733,10 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O30" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P30" t="n">
         <v>9</v>
@@ -6806,7 +6773,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -6830,7 +6797,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -6849,10 +6816,10 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O31" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P31" t="n">
         <v>9</v>
@@ -6889,7 +6856,7 @@
         <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -6913,7 +6880,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -6932,10 +6899,10 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O32" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P32" t="n">
         <v>9</v>
@@ -6972,7 +6939,7 @@
         <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -6996,7 +6963,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -7015,10 +6982,10 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O33" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P33" t="n">
         <v>9</v>
@@ -7055,7 +7022,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -7079,7 +7046,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -7098,10 +7065,10 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O34" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P34" t="n">
         <v>9</v>
@@ -7138,7 +7105,7 @@
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -7162,7 +7129,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -7181,10 +7148,10 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O35" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P35" t="n">
         <v>9</v>
@@ -7221,7 +7188,7 @@
         <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -7245,7 +7212,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -7264,10 +7231,10 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O36" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P36" t="n">
         <v>9</v>
@@ -7304,7 +7271,7 @@
         <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -7328,7 +7295,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -7347,10 +7314,10 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O37" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P37" t="n">
         <v>9</v>
@@ -7387,7 +7354,7 @@
         <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -7411,7 +7378,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -7430,10 +7397,10 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O38" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P38" t="n">
         <v>9</v>
@@ -7470,7 +7437,7 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -7494,7 +7461,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -7513,10 +7480,10 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O39" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P39" t="n">
         <v>9</v>
@@ -7553,7 +7520,7 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -7577,7 +7544,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -7596,10 +7563,10 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O40" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P40" t="n">
         <v>9</v>
@@ -7636,7 +7603,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -7660,7 +7627,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -7679,10 +7646,10 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O41" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P41" t="n">
         <v>9</v>
@@ -7719,7 +7686,7 @@
         <v>9</v>
       </c>
       <c r="C42" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -7743,7 +7710,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -7762,10 +7729,10 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O42" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P42" t="n">
         <v>9</v>
@@ -7802,7 +7769,7 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -7826,7 +7793,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -7845,10 +7812,10 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O43" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P43" t="n">
         <v>9</v>
@@ -7885,7 +7852,7 @@
         <v>9</v>
       </c>
       <c r="C44" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -7909,7 +7876,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -7928,10 +7895,10 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O44" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P44" t="n">
         <v>9</v>
@@ -7968,7 +7935,7 @@
         <v>9</v>
       </c>
       <c r="C45" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -7992,7 +7959,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -8011,10 +7978,10 @@
         </is>
       </c>
       <c r="N45" t="n">
+        <v>68</v>
+      </c>
+      <c r="O45" t="n">
         <v>71</v>
-      </c>
-      <c r="O45" t="n">
-        <v>74</v>
       </c>
       <c r="P45" t="n">
         <v>9</v>
@@ -8051,7 +8018,7 @@
         <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -8075,7 +8042,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -8094,10 +8061,10 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O46" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P46" t="n">
         <v>9</v>
@@ -8134,7 +8101,7 @@
         <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -8158,7 +8125,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -8177,10 +8144,10 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O47" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P47" t="n">
         <v>9</v>
@@ -8217,7 +8184,7 @@
         <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -8241,7 +8208,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -8256,10 +8223,10 @@
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O48" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P48" t="n">
         <v>9</v>
@@ -8296,7 +8263,7 @@
         <v>9</v>
       </c>
       <c r="C49" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -8316,7 +8283,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -8331,10 +8298,10 @@
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O49" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P49" t="n">
         <v>9</v>
@@ -8371,7 +8338,7 @@
         <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -8391,7 +8358,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -8410,10 +8377,10 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O50" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P50" t="n">
         <v>9</v>
@@ -8450,7 +8417,7 @@
         <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -8474,7 +8441,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -8493,10 +8460,10 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O51" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P51" t="n">
         <v>9</v>
@@ -8533,7 +8500,7 @@
         <v>9</v>
       </c>
       <c r="C52" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -8557,7 +8524,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -8572,10 +8539,10 @@
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O52" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P52" t="n">
         <v>9</v>
@@ -8612,7 +8579,7 @@
         <v>10</v>
       </c>
       <c r="C53" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -8647,7 +8614,7 @@
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -8782,7 +8749,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -8800,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P55" t="n">
         <v>10</v>
@@ -8837,7 +8804,7 @@
         <v>11</v>
       </c>
       <c r="C56" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -8872,7 +8839,7 @@
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O56" t="n">
         <v>2</v>
@@ -8934,7 +8901,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -8952,7 +8919,7 @@
         <v>2</v>
       </c>
       <c r="O57" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P57" t="n">
         <v>11</v>
@@ -8991,7 +8958,7 @@
         <v>13</v>
       </c>
       <c r="C58" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -9011,7 +8978,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -9026,10 +8993,10 @@
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O58" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P58" t="n">
         <v>13</v>
@@ -9066,7 +9033,7 @@
         <v>13</v>
       </c>
       <c r="C59" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -9086,7 +9053,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -9101,10 +9068,10 @@
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O59" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P59" t="n">
         <v>13</v>
@@ -9141,7 +9108,7 @@
         <v>14</v>
       </c>
       <c r="C60" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -9161,7 +9128,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -9176,10 +9143,10 @@
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O60" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P60" t="n">
         <v>14</v>
@@ -9216,7 +9183,7 @@
         <v>14</v>
       </c>
       <c r="C61" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -9236,7 +9203,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -9251,10 +9218,10 @@
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O61" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P61" t="n">
         <v>14</v>
@@ -9291,7 +9258,7 @@
         <v>15</v>
       </c>
       <c r="C62" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -9326,7 +9293,7 @@
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O62" t="n">
         <v>5</v>
@@ -9461,7 +9428,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -9479,7 +9446,7 @@
         <v>31</v>
       </c>
       <c r="O64" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P64" t="n">
         <v>15</v>
@@ -9516,7 +9483,7 @@
         <v>18</v>
       </c>
       <c r="C65" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -9555,7 +9522,7 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O65" t="n">
         <v>26</v>
@@ -10085,7 +10052,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -10107,7 +10074,7 @@
         <v>36</v>
       </c>
       <c r="O72" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P72" t="n">
         <v>18</v>
@@ -10144,7 +10111,7 @@
         <v>18</v>
       </c>
       <c r="C73" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -10168,7 +10135,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -10187,10 +10154,10 @@
         </is>
       </c>
       <c r="N73" t="n">
+        <v>37</v>
+      </c>
+      <c r="O73" t="n">
         <v>38</v>
-      </c>
-      <c r="O73" t="n">
-        <v>40</v>
       </c>
       <c r="P73" t="n">
         <v>18</v>
@@ -10227,7 +10194,7 @@
         <v>18</v>
       </c>
       <c r="C74" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -10251,7 +10218,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -10270,10 +10237,10 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O74" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P74" t="n">
         <v>18</v>
@@ -10310,7 +10277,7 @@
         <v>18</v>
       </c>
       <c r="C75" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -10334,7 +10301,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -10353,10 +10320,10 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O75" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P75" t="n">
         <v>18</v>
@@ -10393,7 +10360,7 @@
         <v>18</v>
       </c>
       <c r="C76" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -10417,7 +10384,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -10436,10 +10403,10 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O76" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P76" t="n">
         <v>18</v>
@@ -10476,7 +10443,7 @@
         <v>18</v>
       </c>
       <c r="C77" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -10500,7 +10467,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -10519,10 +10486,10 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O77" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P77" t="n">
         <v>18</v>
@@ -10559,7 +10526,7 @@
         <v>18</v>
       </c>
       <c r="C78" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -10583,7 +10550,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -10602,10 +10569,10 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O78" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P78" t="n">
         <v>18</v>
@@ -10642,7 +10609,7 @@
         <v>18</v>
       </c>
       <c r="C79" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -10666,7 +10633,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -10685,10 +10652,10 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O79" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P79" t="n">
         <v>18</v>
@@ -10725,7 +10692,7 @@
         <v>18</v>
       </c>
       <c r="C80" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -10749,7 +10716,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -10768,10 +10735,10 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O80" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P80" t="n">
         <v>18</v>
@@ -10808,7 +10775,7 @@
         <v>18</v>
       </c>
       <c r="C81" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -10832,7 +10799,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -10851,10 +10818,10 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O81" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P81" t="n">
         <v>18</v>
@@ -10891,7 +10858,7 @@
         <v>18</v>
       </c>
       <c r="C82" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -10915,7 +10882,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -10934,10 +10901,10 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O82" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P82" t="n">
         <v>18</v>
@@ -10974,7 +10941,7 @@
         <v>18</v>
       </c>
       <c r="C83" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -10998,7 +10965,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -11009,18 +10976,18 @@
         <v>12</v>
       </c>
       <c r="L83" t="n">
+        <v>56</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>52</v>
+      </c>
+      <c r="O83" t="n">
         <v>55</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>54</v>
-      </c>
-      <c r="O83" t="n">
-        <v>56</v>
       </c>
       <c r="P83" t="n">
         <v>18</v>
@@ -11057,7 +11024,7 @@
         <v>18</v>
       </c>
       <c r="C84" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -11068,7 +11035,7 @@
         <v>12</v>
       </c>
       <c r="F84" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -11081,29 +11048,29 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="K84" t="n">
         <v>12</v>
       </c>
       <c r="L84" t="n">
+        <v>57</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>55</v>
       </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>454</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="O84" t="n">
         <v>56</v>
-      </c>
-      <c r="O84" t="n">
-        <v>57</v>
       </c>
       <c r="P84" t="n">
         <v>18</v>
@@ -11140,22 +11107,22 @@
         <v>18</v>
       </c>
       <c r="C85" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="E85" t="n">
         <v>12</v>
       </c>
       <c r="F85" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>455</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -11164,7 +11131,7 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -11175,18 +11142,18 @@
         <v>12</v>
       </c>
       <c r="L85" t="n">
+        <v>58</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>56</v>
+      </c>
+      <c r="O85" t="n">
         <v>57</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>57</v>
-      </c>
-      <c r="O85" t="n">
-        <v>59</v>
       </c>
       <c r="P85" t="n">
         <v>18</v>
@@ -11223,7 +11190,7 @@
         <v>18</v>
       </c>
       <c r="C86" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -11234,42 +11201,42 @@
         <v>12</v>
       </c>
       <c r="F86" t="n">
+        <v>58</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>58</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>conversation_neutral</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>13</v>
+      </c>
+      <c r="L86" t="n">
+        <v>59</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>57</v>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Sam</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>giftgiving</t>
-        </is>
-      </c>
-      <c r="K86" t="n">
-        <v>12</v>
-      </c>
-      <c r="L86" t="n">
+      <c r="O86" t="n">
         <v>58</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>59</v>
-      </c>
-      <c r="O86" t="n">
-        <v>60</v>
       </c>
       <c r="P86" t="n">
         <v>18</v>
@@ -11306,22 +11273,22 @@
         <v>18</v>
       </c>
       <c r="C87" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>conversation_neutral</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F87" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>456</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -11330,7 +11297,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -11341,18 +11308,18 @@
         <v>13</v>
       </c>
       <c r="L87" t="n">
+        <v>60</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>58</v>
+      </c>
+      <c r="O87" t="n">
         <v>59</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>60</v>
-      </c>
-      <c r="O87" t="n">
-        <v>61</v>
       </c>
       <c r="P87" t="n">
         <v>18</v>
@@ -11389,7 +11356,7 @@
         <v>18</v>
       </c>
       <c r="C88" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -11400,42 +11367,42 @@
         <v>13</v>
       </c>
       <c r="F88" t="n">
+        <v>60</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>60</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>14</v>
+      </c>
+      <c r="L88" t="n">
+        <v>61</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>59</v>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Sam</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>62</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>conversation_neutral</t>
-        </is>
-      </c>
-      <c r="K88" t="n">
-        <v>13</v>
-      </c>
-      <c r="L88" t="n">
+      <c r="O88" t="n">
         <v>60</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>61</v>
-      </c>
-      <c r="O88" t="n">
-        <v>62</v>
       </c>
       <c r="P88" t="n">
         <v>18</v>
@@ -11472,18 +11439,18 @@
         <v>18</v>
       </c>
       <c r="C89" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>conversation_neutral</t>
+          <t>invitation</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F89" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -11496,29 +11463,29 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>invitation</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="K89" t="n">
         <v>14</v>
       </c>
       <c r="L89" t="n">
+        <v>62</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>60</v>
+      </c>
+      <c r="O89" t="n">
         <v>61</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>62</v>
-      </c>
-      <c r="O89" t="n">
-        <v>63</v>
       </c>
       <c r="P89" t="n">
         <v>18</v>
@@ -11555,22 +11522,22 @@
         <v>18</v>
       </c>
       <c r="C90" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>invitation</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="E90" t="n">
         <v>14</v>
       </c>
       <c r="F90" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>460</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -11579,29 +11546,29 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>request assistance</t>
         </is>
       </c>
       <c r="K90" t="n">
         <v>14</v>
       </c>
       <c r="L90" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O90" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="P90" t="n">
         <v>18</v>
@@ -11638,22 +11605,22 @@
         <v>18</v>
       </c>
       <c r="C91" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>request assistance</t>
         </is>
       </c>
       <c r="E91" t="n">
         <v>14</v>
       </c>
       <c r="F91" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -11662,18 +11629,18 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>hostility_non-lethal</t>
         </is>
       </c>
       <c r="K91" t="n">
         <v>14</v>
       </c>
       <c r="L91" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -11681,10 +11648,10 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O91" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P91" t="n">
         <v>18</v>
@@ -11721,18 +11688,18 @@
         <v>18</v>
       </c>
       <c r="C92" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>hostility_non-lethal</t>
         </is>
       </c>
       <c r="E92" t="n">
         <v>14</v>
       </c>
       <c r="F92" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -11745,29 +11712,29 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>hostility_non-lethal</t>
+          <t>challenge</t>
         </is>
       </c>
       <c r="K92" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L92" t="n">
+        <v>74</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>72</v>
+      </c>
+      <c r="O92" t="n">
         <v>73</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>459</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>73</v>
-      </c>
-      <c r="O92" t="n">
-        <v>75</v>
       </c>
       <c r="P92" t="n">
         <v>18</v>
@@ -11804,53 +11771,53 @@
         <v>18</v>
       </c>
       <c r="C93" t="n">
+        <v>73</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>challenge</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>15</v>
+      </c>
+      <c r="F93" t="n">
+        <v>74</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>74</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>request assistance</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>16</v>
+      </c>
+      <c r="L93" t="n">
         <v>75</v>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>hostility_non-lethal</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>14</v>
-      </c>
-      <c r="F93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>73</v>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>459</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Sam</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>76</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>challenge</t>
-        </is>
-      </c>
-      <c r="K93" t="n">
-        <v>15</v>
-      </c>
-      <c r="L93" t="n">
+      <c r="O93" t="n">
         <v>74</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>460</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>75</v>
-      </c>
-      <c r="O93" t="n">
-        <v>76</v>
       </c>
       <c r="P93" t="n">
         <v>18</v>
@@ -11887,22 +11854,22 @@
         <v>18</v>
       </c>
       <c r="C94" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>challenge</t>
+          <t>request assistance</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F94" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>461</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -11911,29 +11878,25 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="K94" t="n">
         <v>16</v>
       </c>
       <c r="L94" t="n">
+        <v>76</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>74</v>
+      </c>
+      <c r="O94" t="n">
         <v>75</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>76</v>
-      </c>
-      <c r="O94" t="n">
-        <v>77</v>
       </c>
       <c r="P94" t="n">
         <v>18</v>
@@ -11970,31 +11933,27 @@
         <v>18</v>
       </c>
       <c r="C95" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="E95" t="n">
         <v>16</v>
       </c>
       <c r="F95" t="n">
-        <v>75</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
           <t>Sam</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -12005,14 +11964,14 @@
         <v>16</v>
       </c>
       <c r="L95" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O95" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P95" t="n">
         <v>18</v>
@@ -12049,7 +12008,7 @@
         <v>18</v>
       </c>
       <c r="C96" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -12060,7 +12019,7 @@
         <v>16</v>
       </c>
       <c r="F96" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -12069,25 +12028,25 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="K96" t="n">
         <v>16</v>
       </c>
       <c r="L96" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O96" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P96" t="n">
         <v>18</v>
@@ -12124,18 +12083,18 @@
         <v>18</v>
       </c>
       <c r="C97" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="E97" t="n">
         <v>16</v>
       </c>
       <c r="F97" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
@@ -12144,25 +12103,25 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="K97" t="n">
         <v>16</v>
       </c>
       <c r="L97" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O97" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P97" t="n">
         <v>18</v>
@@ -12199,18 +12158,18 @@
         <v>18</v>
       </c>
       <c r="C98" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="E98" t="n">
         <v>16</v>
       </c>
       <c r="F98" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
@@ -12219,7 +12178,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -12230,14 +12189,14 @@
         <v>16</v>
       </c>
       <c r="L98" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O98" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P98" t="n">
         <v>18</v>
@@ -12274,7 +12233,7 @@
         <v>18</v>
       </c>
       <c r="C99" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -12285,7 +12244,7 @@
         <v>16</v>
       </c>
       <c r="F99" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
@@ -12294,25 +12253,25 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>last_seen</t>
         </is>
       </c>
       <c r="K99" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L99" t="n">
-        <v>80</v>
+        <v>80.5</v>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O99" t="n">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="P99" t="n">
         <v>18</v>
@@ -12346,72 +12305,72 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C100" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>origin</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>80</v>
+        <v>6.5</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Sam</t>
+          <t>Eyvind</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>last_seen</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="K100" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L100" t="n">
-        <v>80.5</v>
+        <v>7</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="O100" t="n">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="P100" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>Sam</t>
+          <t>Eyvind</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>#DC143C</t>
+          <t>#FA8072</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>crimson</t>
+          <t>salmon</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="U100" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
@@ -12424,18 +12383,18 @@
         <v>19</v>
       </c>
       <c r="C101" t="n">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>origin</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F101" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
@@ -12444,25 +12403,29 @@
         </is>
       </c>
       <c r="I101" t="n">
+        <v>60</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>14</v>
+      </c>
+      <c r="L101" t="n">
+        <v>61</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>6</v>
       </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>giftgiving</t>
-        </is>
-      </c>
-      <c r="K101" t="n">
-        <v>3</v>
-      </c>
-      <c r="L101" t="n">
-        <v>7</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
-        <v>95</v>
-      </c>
       <c r="O101" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="P101" t="n">
         <v>19</v>
@@ -12499,49 +12462,53 @@
         <v>19</v>
       </c>
       <c r="C102" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>invitation</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>14</v>
+      </c>
+      <c r="F102" t="n">
+        <v>61</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Eyvind</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>61</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
           <t>giftgiving</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>3</v>
-      </c>
-      <c r="F102" t="n">
-        <v>7</v>
-      </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Eyvind</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
-        <v>63</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>invitation</t>
         </is>
       </c>
       <c r="K102" t="n">
         <v>14</v>
       </c>
       <c r="L102" t="n">
+        <v>62</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>60</v>
+      </c>
+      <c r="O102" t="n">
         <v>61</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>6</v>
-      </c>
-      <c r="O102" t="n">
-        <v>63</v>
       </c>
       <c r="P102" t="n">
         <v>19</v>
@@ -12578,22 +12545,22 @@
         <v>19</v>
       </c>
       <c r="C103" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>invitation</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="E103" t="n">
         <v>14</v>
       </c>
       <c r="F103" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>460</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -12602,29 +12569,29 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>offer assistance</t>
         </is>
       </c>
       <c r="K103" t="n">
         <v>14</v>
       </c>
       <c r="L103" t="n">
+        <v>63</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>61</v>
+      </c>
+      <c r="O103" t="n">
         <v>62</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>460</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
-        <v>63</v>
-      </c>
-      <c r="O103" t="n">
-        <v>64</v>
       </c>
       <c r="P103" t="n">
         <v>19</v>
@@ -12661,22 +12628,22 @@
         <v>19</v>
       </c>
       <c r="C104" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>offer assistance</t>
         </is>
       </c>
       <c r="E104" t="n">
         <v>14</v>
       </c>
       <c r="F104" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>456</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -12685,29 +12652,29 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>offer assistance</t>
+          <t>hostility_non-lethal</t>
         </is>
       </c>
       <c r="K104" t="n">
         <v>14</v>
       </c>
       <c r="L104" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>459</t>
         </is>
       </c>
       <c r="N104" t="n">
+        <v>62</v>
+      </c>
+      <c r="O104" t="n">
         <v>64</v>
-      </c>
-      <c r="O104" t="n">
-        <v>65</v>
       </c>
       <c r="P104" t="n">
         <v>19</v>
@@ -12744,22 +12711,22 @@
         <v>19</v>
       </c>
       <c r="C105" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>offer assistance</t>
+          <t>hostility_non-lethal</t>
         </is>
       </c>
       <c r="E105" t="n">
         <v>14</v>
       </c>
       <c r="F105" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>459</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -12768,29 +12735,29 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>hostility_non-lethal</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="K105" t="n">
         <v>14</v>
       </c>
       <c r="L105" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>458</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O105" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P105" t="n">
         <v>19</v>
@@ -12827,22 +12794,22 @@
         <v>19</v>
       </c>
       <c r="C106" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>hostility_non-lethal</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="E106" t="n">
         <v>14</v>
       </c>
       <c r="F106" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>458</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -12851,29 +12818,29 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>hostility_lethal</t>
         </is>
       </c>
       <c r="K106" t="n">
         <v>14</v>
       </c>
       <c r="L106" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>459</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O106" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P106" t="n">
         <v>19</v>
@@ -12910,22 +12877,22 @@
         <v>19</v>
       </c>
       <c r="C107" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>hostility_lethal</t>
         </is>
       </c>
       <c r="E107" t="n">
         <v>14</v>
       </c>
       <c r="F107" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>459</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -12934,29 +12901,25 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>hostility_lethal</t>
+          <t>last_seen</t>
         </is>
       </c>
       <c r="K107" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L107" t="n">
-        <v>72</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>459</t>
-        </is>
-      </c>
+        <v>72.5</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
       <c r="N107" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O107" t="n">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="P107" t="n">
         <v>19</v>
@@ -12990,73 +12953,69 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C108" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>hostility_lethal</t>
+          <t>origin</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>72</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>459</t>
-        </is>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Eyvind</t>
+          <t>king of Greeks</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>last_seen</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="K108" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L108" t="n">
-        <v>72.5</v>
+        <v>7</v>
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="O108" t="n">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="P108" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>Eyvind</t>
+          <t>king of Greeks</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>#FA8072</t>
+          <t>#CD853F</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>salmon</t>
+          <t>peru</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U108" t="n">
         <v>5</v>
@@ -13072,18 +13031,18 @@
         <v>21</v>
       </c>
       <c r="C109" t="n">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>origin</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F109" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
@@ -13092,25 +13051,25 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>request assistance</t>
         </is>
       </c>
       <c r="K109" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L109" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="O109" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="P109" t="n">
         <v>21</v>
@@ -13147,18 +13106,18 @@
         <v>21</v>
       </c>
       <c r="C110" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>request assistance</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F110" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
@@ -13167,29 +13126,29 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>hostility_lethal</t>
+          <t>summons</t>
         </is>
       </c>
       <c r="K110" t="n">
         <v>12</v>
       </c>
       <c r="L110" t="n">
-        <v>999</v>
+        <v>54</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>454</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="O110" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P110" t="n">
         <v>21</v>
@@ -13226,22 +13185,22 @@
         <v>21</v>
       </c>
       <c r="C111" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>hostility_lethal</t>
+          <t>summons</t>
         </is>
       </c>
       <c r="E111" t="n">
         <v>12</v>
       </c>
       <c r="F111" t="n">
-        <v>999</v>
+        <v>54</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>454</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -13250,25 +13209,29 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>last_seen</t>
+          <t>summons</t>
         </is>
       </c>
       <c r="K111" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L111" t="n">
-        <v>999.5</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
       <c r="N111" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="O111" t="n">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="P111" t="n">
         <v>21</v>
@@ -13302,72 +13265,80 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C112" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>origin</t>
+          <t>summons</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F112" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G112" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Freyfaxi</t>
+          <t>king of Greeks</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>fostering</t>
+          <t>hostility_lethal</t>
         </is>
       </c>
       <c r="K112" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L112" t="n">
-        <v>8</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>84</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
       <c r="N112" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="O112" t="n">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="P112" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>Freyfaxi</t>
+          <t>king of Greeks</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>#FFD700</t>
+          <t>#CD853F</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>peru</t>
         </is>
       </c>
       <c r="T112" t="n">
         <v>0</v>
       </c>
       <c r="U112" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V112" t="inlineStr"/>
       <c r="W112" t="inlineStr"/>
@@ -13377,72 +13348,76 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C113" t="n">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>fostering</t>
+          <t>hostility_lethal</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F113" t="n">
-        <v>8</v>
-      </c>
-      <c r="G113" t="inlineStr"/>
+        <v>84</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Freyfaxi</t>
+          <t>king of Greeks</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>last_seen</t>
         </is>
       </c>
       <c r="K113" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L113" t="n">
-        <v>15</v>
+        <v>84.5</v>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="O113" t="n">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="P113" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>Freyfaxi</t>
+          <t>king of Greeks</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>#FFD700</t>
+          <t>#CD853F</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>peru</t>
         </is>
       </c>
       <c r="T113" t="n">
         <v>0</v>
       </c>
       <c r="U113" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V113" t="inlineStr"/>
       <c r="W113" t="inlineStr"/>
@@ -13455,18 +13430,18 @@
         <v>22</v>
       </c>
       <c r="C114" t="n">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>origin</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
@@ -13475,29 +13450,25 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>ownership</t>
         </is>
       </c>
       <c r="K114" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L114" t="n">
-        <v>20</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>442</t>
-        </is>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="O114" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="P114" t="n">
         <v>22</v>
@@ -13534,53 +13505,45 @@
         <v>22</v>
       </c>
       <c r="C115" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>ownership</t>
         </is>
       </c>
       <c r="E115" t="n">
+        <v>3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>8</v>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Freyfaxi</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>14</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>request assistance</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>5</v>
       </c>
-      <c r="F115" t="n">
-        <v>20</v>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>442</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Freyfaxi</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>55</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>summons</t>
-        </is>
-      </c>
-      <c r="K115" t="n">
-        <v>12</v>
-      </c>
       <c r="L115" t="n">
-        <v>54</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>454</t>
-        </is>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
       <c r="N115" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="O115" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="P115" t="n">
         <v>22</v>
@@ -13617,53 +13580,49 @@
         <v>22</v>
       </c>
       <c r="C116" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>summons</t>
+          <t>request assistance</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F116" t="n">
-        <v>54</v>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>454</t>
-        </is>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
           <t>Freyfaxi</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>summons</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="K116" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L116" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>442</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O116" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="P116" t="n">
         <v>22</v>
@@ -13700,22 +13659,22 @@
         <v>22</v>
       </c>
       <c r="C117" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>summons</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F117" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>442</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -13724,7 +13683,7 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -13735,14 +13694,14 @@
         <v>17</v>
       </c>
       <c r="L117" t="n">
-        <v>56.5</v>
+        <v>20.5</v>
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="O117" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P117" t="n">
         <v>22</v>
@@ -13779,7 +13738,7 @@
         <v>23</v>
       </c>
       <c r="C118" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -13818,7 +13777,7 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O118" t="n">
         <v>8</v>
@@ -14364,7 +14323,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -14386,7 +14345,7 @@
         <v>33</v>
       </c>
       <c r="O125" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P125" t="n">
         <v>23</v>
@@ -14423,7 +14382,7 @@
         <v>23</v>
       </c>
       <c r="C126" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -14447,7 +14406,7 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -14462,10 +14421,10 @@
       </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O126" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P126" t="n">
         <v>23</v>
@@ -14502,7 +14461,7 @@
         <v>24</v>
       </c>
       <c r="C127" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -14541,7 +14500,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O127" t="n">
         <v>8</v>
@@ -15454,7 +15413,7 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -15472,7 +15431,7 @@
         <v>23</v>
       </c>
       <c r="O139" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P139" t="n">
         <v>24</v>
@@ -15509,7 +15468,7 @@
         <v>25</v>
       </c>
       <c r="C140" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -15548,7 +15507,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O140" t="n">
         <v>13</v>
@@ -15687,7 +15646,7 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -15705,7 +15664,7 @@
         <v>15</v>
       </c>
       <c r="O142" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P142" t="n">
         <v>25</v>
@@ -15742,7 +15701,7 @@
         <v>26</v>
       </c>
       <c r="C143" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -15777,7 +15736,7 @@
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O143" t="n">
         <v>16</v>
@@ -15995,7 +15954,7 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -16013,7 +15972,7 @@
         <v>18</v>
       </c>
       <c r="O146" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P146" t="n">
         <v>26</v>
@@ -16050,7 +16009,7 @@
         <v>29</v>
       </c>
       <c r="C147" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -16061,7 +16020,7 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
@@ -16070,25 +16029,25 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="K147" t="n">
         <v>8</v>
       </c>
       <c r="L147" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O147" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P147" t="n">
         <v>29</v>
@@ -16125,18 +16084,18 @@
         <v>29</v>
       </c>
       <c r="C148" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="E148" t="n">
         <v>8</v>
       </c>
       <c r="F148" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
@@ -16145,7 +16104,7 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -16153,17 +16112,17 @@
         </is>
       </c>
       <c r="K148" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L148" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O148" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P148" t="n">
         <v>29</v>
@@ -16200,7 +16159,7 @@
         <v>29</v>
       </c>
       <c r="C149" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -16208,10 +16167,10 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F149" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
@@ -16220,25 +16179,25 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="K149" t="n">
         <v>9</v>
       </c>
       <c r="L149" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O149" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P149" t="n">
         <v>29</v>
@@ -16275,18 +16234,18 @@
         <v>29</v>
       </c>
       <c r="C150" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="E150" t="n">
         <v>9</v>
       </c>
       <c r="F150" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
@@ -16295,25 +16254,25 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>offer assistance</t>
         </is>
       </c>
       <c r="K150" t="n">
         <v>9</v>
       </c>
       <c r="L150" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O150" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P150" t="n">
         <v>29</v>
@@ -16350,18 +16309,18 @@
         <v>29</v>
       </c>
       <c r="C151" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>offer assistance</t>
         </is>
       </c>
       <c r="E151" t="n">
         <v>9</v>
       </c>
       <c r="F151" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
@@ -16370,25 +16329,29 @@
         </is>
       </c>
       <c r="I151" t="n">
+        <v>43</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>request assistance</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>11</v>
+      </c>
+      <c r="L151" t="n">
+        <v>44</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>35</v>
       </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>offer assistance</t>
-        </is>
-      </c>
-      <c r="K151" t="n">
-        <v>9</v>
-      </c>
-      <c r="L151" t="n">
-        <v>36</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
-        <v>34</v>
-      </c>
       <c r="O151" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="P151" t="n">
         <v>29</v>
@@ -16425,49 +16388,53 @@
         <v>29</v>
       </c>
       <c r="C152" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>offer assistance</t>
+          <t>request assistance</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>36</v>
-      </c>
-      <c r="G152" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
       <c r="H152" t="inlineStr">
         <is>
           <t>Thorkel</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>threat</t>
         </is>
       </c>
       <c r="K152" t="n">
         <v>11</v>
       </c>
       <c r="L152" t="n">
+        <v>45</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>43</v>
+      </c>
+      <c r="O152" t="n">
         <v>44</v>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>452</t>
-        </is>
-      </c>
-      <c r="N152" t="n">
-        <v>35</v>
-      </c>
-      <c r="O152" t="n">
-        <v>45</v>
       </c>
       <c r="P152" t="n">
         <v>29</v>
@@ -16504,18 +16471,18 @@
         <v>29</v>
       </c>
       <c r="C153" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>threat</t>
         </is>
       </c>
       <c r="E153" t="n">
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -16528,29 +16495,29 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>threat</t>
+          <t>hostility_non-lethal</t>
         </is>
       </c>
       <c r="K153" t="n">
         <v>11</v>
       </c>
       <c r="L153" t="n">
+        <v>46</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>44</v>
+      </c>
+      <c r="O153" t="n">
         <v>45</v>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>452</t>
-        </is>
-      </c>
-      <c r="N153" t="n">
-        <v>45</v>
-      </c>
-      <c r="O153" t="n">
-        <v>46</v>
       </c>
       <c r="P153" t="n">
         <v>29</v>
@@ -16587,18 +16554,18 @@
         <v>29</v>
       </c>
       <c r="C154" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>threat</t>
+          <t>hostility_non-lethal</t>
         </is>
       </c>
       <c r="E154" t="n">
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -16611,29 +16578,29 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>hostility_non-lethal</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="K154" t="n">
         <v>11</v>
       </c>
       <c r="L154" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>454</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O154" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P154" t="n">
         <v>29</v>
@@ -16670,22 +16637,22 @@
         <v>29</v>
       </c>
       <c r="C155" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>hostility_non-lethal</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="E155" t="n">
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>454</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -16694,7 +16661,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
@@ -16702,10 +16669,10 @@
         </is>
       </c>
       <c r="K155" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L155" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
@@ -16713,10 +16680,10 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O155" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P155" t="n">
         <v>29</v>
@@ -16753,7 +16720,7 @@
         <v>29</v>
       </c>
       <c r="C156" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -16761,10 +16728,10 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -16777,29 +16744,29 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>summons</t>
         </is>
       </c>
       <c r="K156" t="n">
         <v>12</v>
       </c>
       <c r="L156" t="n">
+        <v>54</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>52</v>
+      </c>
+      <c r="O156" t="n">
         <v>53</v>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>454</t>
-        </is>
-      </c>
-      <c r="N156" t="n">
-        <v>51</v>
-      </c>
-      <c r="O156" t="n">
-        <v>54</v>
       </c>
       <c r="P156" t="n">
         <v>29</v>
@@ -16836,18 +16803,18 @@
         <v>29</v>
       </c>
       <c r="C157" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>summons</t>
         </is>
       </c>
       <c r="E157" t="n">
         <v>12</v>
       </c>
       <c r="F157" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -16860,29 +16827,29 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>summons</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="K157" t="n">
         <v>12</v>
       </c>
       <c r="L157" t="n">
+        <v>57</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>53</v>
+      </c>
+      <c r="O157" t="n">
         <v>56</v>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>454</t>
-        </is>
-      </c>
-      <c r="N157" t="n">
-        <v>54</v>
-      </c>
-      <c r="O157" t="n">
-        <v>58</v>
       </c>
       <c r="P157" t="n">
         <v>29</v>
@@ -16919,53 +16886,49 @@
         <v>29</v>
       </c>
       <c r="C158" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>summons</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="E158" t="n">
         <v>12</v>
       </c>
       <c r="F158" t="n">
+        <v>57</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Thorkel</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>75</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>giftgiving</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>16</v>
+      </c>
+      <c r="L158" t="n">
+        <v>76</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>56</v>
       </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>454</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Thorkel</t>
-        </is>
-      </c>
-      <c r="I158" t="n">
-        <v>59</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>giftgiving</t>
-        </is>
-      </c>
-      <c r="K158" t="n">
-        <v>12</v>
-      </c>
-      <c r="L158" t="n">
-        <v>57</v>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
-      <c r="N158" t="n">
-        <v>58</v>
-      </c>
       <c r="O158" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P158" t="n">
         <v>29</v>
@@ -17002,7 +16965,7 @@
         <v>29</v>
       </c>
       <c r="C159" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -17010,16 +16973,12 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F159" t="n">
-        <v>57</v>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
           <t>Thorkel</t>
@@ -17037,11 +16996,11 @@
         <v>16</v>
       </c>
       <c r="L159" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="O159" t="n">
         <v>78</v>
@@ -17092,7 +17051,7 @@
         <v>16</v>
       </c>
       <c r="F160" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
@@ -17101,25 +17060,25 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>last_seen</t>
         </is>
       </c>
       <c r="K160" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L160" t="n">
-        <v>79</v>
+        <v>79.5</v>
       </c>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="n">
         <v>78</v>
       </c>
       <c r="O160" t="n">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P160" t="n">
         <v>29</v>
@@ -17153,72 +17112,72 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C161" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>origin</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>79</v>
+        <v>33.5</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Thorkel</t>
+          <t>Thorgeir</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>last_seen</t>
+          <t>hostility_non-lethal</t>
         </is>
       </c>
       <c r="K161" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L161" t="n">
-        <v>79.5</v>
+        <v>34</v>
       </c>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="O161" t="n">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="P161" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>Thorkel</t>
+          <t>Thorgeir</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>#228B22</t>
+          <t>#6B8E23</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>forestgreen</t>
+          <t>olivedrab</t>
         </is>
       </c>
       <c r="T161" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U161" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V161" t="inlineStr"/>
       <c r="W161" t="inlineStr"/>
@@ -17231,18 +17190,18 @@
         <v>31</v>
       </c>
       <c r="C162" t="n">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>origin</t>
+          <t>hostility_non-lethal</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F162" t="n">
-        <v>33.5</v>
+        <v>34</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
@@ -17251,25 +17210,25 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>hostility_non-lethal</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="K162" t="n">
         <v>9</v>
       </c>
       <c r="L162" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="n">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="O162" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P162" t="n">
         <v>31</v>
@@ -17306,18 +17265,18 @@
         <v>31</v>
       </c>
       <c r="C163" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>hostility_non-lethal</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="E163" t="n">
         <v>9</v>
       </c>
       <c r="F163" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
@@ -17326,25 +17285,25 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>offer assistance</t>
         </is>
       </c>
       <c r="K163" t="n">
         <v>9</v>
       </c>
       <c r="L163" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O163" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P163" t="n">
         <v>31</v>
@@ -17381,18 +17340,18 @@
         <v>31</v>
       </c>
       <c r="C164" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>offer assistance</t>
         </is>
       </c>
       <c r="E164" t="n">
         <v>9</v>
       </c>
       <c r="F164" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
@@ -17401,25 +17360,29 @@
         </is>
       </c>
       <c r="I164" t="n">
+        <v>36</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>provide information</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>10</v>
+      </c>
+      <c r="L164" t="n">
+        <v>37</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>35</v>
       </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>offer assistance</t>
-        </is>
-      </c>
-      <c r="K164" t="n">
-        <v>9</v>
-      </c>
-      <c r="L164" t="n">
+      <c r="O164" t="n">
         <v>36</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="n">
-        <v>34</v>
-      </c>
-      <c r="O164" t="n">
-        <v>35</v>
       </c>
       <c r="P164" t="n">
         <v>31</v>
@@ -17456,27 +17419,31 @@
         <v>31</v>
       </c>
       <c r="C165" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>offer assistance</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F165" t="n">
-        <v>36</v>
-      </c>
-      <c r="G165" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
       <c r="H165" t="inlineStr">
         <is>
           <t>Thorgeir</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -17487,18 +17454,18 @@
         <v>10</v>
       </c>
       <c r="L165" t="n">
+        <v>38</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>36</v>
+      </c>
+      <c r="O165" t="n">
         <v>37</v>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>452</t>
-        </is>
-      </c>
-      <c r="N165" t="n">
-        <v>35</v>
-      </c>
-      <c r="O165" t="n">
-        <v>36</v>
       </c>
       <c r="P165" t="n">
         <v>31</v>
@@ -17535,7 +17502,7 @@
         <v>31</v>
       </c>
       <c r="C166" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -17546,7 +17513,7 @@
         <v>10</v>
       </c>
       <c r="F166" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -17559,18 +17526,18 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>request assistance</t>
         </is>
       </c>
       <c r="K166" t="n">
         <v>10</v>
       </c>
       <c r="L166" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
@@ -17578,10 +17545,10 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O166" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P166" t="n">
         <v>31</v>
@@ -17618,18 +17585,18 @@
         <v>31</v>
       </c>
       <c r="C167" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>request assistance</t>
         </is>
       </c>
       <c r="E167" t="n">
         <v>10</v>
       </c>
       <c r="F167" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -17642,29 +17609,29 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="K167" t="n">
         <v>10</v>
       </c>
       <c r="L167" t="n">
+        <v>42</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>40</v>
+      </c>
+      <c r="O167" t="n">
         <v>41</v>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>452</t>
-        </is>
-      </c>
-      <c r="N167" t="n">
-        <v>38</v>
-      </c>
-      <c r="O167" t="n">
-        <v>42</v>
       </c>
       <c r="P167" t="n">
         <v>31</v>
@@ -17701,53 +17668,53 @@
         <v>31</v>
       </c>
       <c r="C168" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="E168" t="n">
         <v>10</v>
       </c>
       <c r="F168" t="n">
+        <v>42</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>46</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>insult</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>11</v>
+      </c>
+      <c r="L168" t="n">
+        <v>47</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>41</v>
       </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>452</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Thorgeir</t>
-        </is>
-      </c>
-      <c r="I168" t="n">
-        <v>43</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>provide information</t>
-        </is>
-      </c>
-      <c r="K168" t="n">
-        <v>10</v>
-      </c>
-      <c r="L168" t="n">
-        <v>42</v>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="N168" t="n">
-        <v>42</v>
-      </c>
       <c r="O168" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P168" t="n">
         <v>31</v>
@@ -17784,22 +17751,22 @@
         <v>31</v>
       </c>
       <c r="C169" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>insult</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>453</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -17808,29 +17775,29 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>insult</t>
+          <t>hostility_non-lethal</t>
         </is>
       </c>
       <c r="K169" t="n">
         <v>11</v>
       </c>
       <c r="L169" t="n">
+        <v>48</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>46</v>
+      </c>
+      <c r="O169" t="n">
         <v>47</v>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
-      <c r="N169" t="n">
-        <v>43</v>
-      </c>
-      <c r="O169" t="n">
-        <v>48</v>
       </c>
       <c r="P169" t="n">
         <v>31</v>
@@ -17867,18 +17834,18 @@
         <v>31</v>
       </c>
       <c r="C170" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>insult</t>
+          <t>hostility_non-lethal</t>
         </is>
       </c>
       <c r="E170" t="n">
         <v>11</v>
       </c>
       <c r="F170" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -17891,29 +17858,29 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>hostility_non-lethal</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="K170" t="n">
         <v>11</v>
       </c>
       <c r="L170" t="n">
+        <v>49</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>47</v>
+      </c>
+      <c r="O170" t="n">
         <v>48</v>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
-      <c r="N170" t="n">
-        <v>48</v>
-      </c>
-      <c r="O170" t="n">
-        <v>49</v>
       </c>
       <c r="P170" t="n">
         <v>31</v>
@@ -17950,53 +17917,53 @@
         <v>31</v>
       </c>
       <c r="C171" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>hostility_non-lethal</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="E171" t="n">
         <v>11</v>
       </c>
       <c r="F171" t="n">
+        <v>49</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Thorgeir</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>54</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>summons</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>12</v>
+      </c>
+      <c r="L171" t="n">
+        <v>55</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>48</v>
       </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Thorgeir</t>
-        </is>
-      </c>
-      <c r="I171" t="n">
-        <v>50</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>provide information</t>
-        </is>
-      </c>
-      <c r="K171" t="n">
-        <v>11</v>
-      </c>
-      <c r="L171" t="n">
-        <v>49</v>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
-      <c r="N171" t="n">
-        <v>49</v>
-      </c>
       <c r="O171" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P171" t="n">
         <v>31</v>
@@ -18033,22 +18000,22 @@
         <v>31</v>
       </c>
       <c r="C172" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>summons</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>454</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -18061,22 +18028,22 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>summons</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="K172" t="n">
         <v>12</v>
       </c>
       <c r="L172" t="n">
+        <v>56</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>54</v>
-      </c>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>454</t>
-        </is>
-      </c>
-      <c r="N172" t="n">
-        <v>50</v>
       </c>
       <c r="O172" t="n">
         <v>55</v>
@@ -18120,18 +18087,18 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>summons</t>
+          <t>giftgiving</t>
         </is>
       </c>
       <c r="E173" t="n">
         <v>12</v>
       </c>
       <c r="F173" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>455</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -18140,29 +18107,29 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>request assistance</t>
         </is>
       </c>
       <c r="K173" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L173" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>461</t>
         </is>
       </c>
       <c r="N173" t="n">
         <v>55</v>
       </c>
       <c r="O173" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="P173" t="n">
         <v>31</v>
@@ -18199,22 +18166,22 @@
         <v>31</v>
       </c>
       <c r="C174" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>request assistance</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F174" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>461</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -18223,7 +18190,7 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -18231,21 +18198,17 @@
         </is>
       </c>
       <c r="K174" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L174" t="n">
-        <v>55</v>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
       <c r="N174" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="O174" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="P174" t="n">
         <v>31</v>
@@ -18282,7 +18245,7 @@
         <v>31</v>
       </c>
       <c r="C175" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -18290,16 +18253,12 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F175" t="n">
-        <v>55</v>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
           <t>Thorgeir</t>
@@ -18310,22 +18269,18 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="K175" t="n">
         <v>16</v>
       </c>
       <c r="L175" t="n">
-        <v>75</v>
-      </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
       <c r="N175" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="O175" t="n">
         <v>77</v>
@@ -18369,20 +18324,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="E176" t="n">
         <v>16</v>
       </c>
       <c r="F176" t="n">
-        <v>75</v>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
           <t>Thorgeir</t>
@@ -18400,7 +18351,7 @@
         <v>16</v>
       </c>
       <c r="L176" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="n">
@@ -18455,7 +18406,7 @@
         <v>16</v>
       </c>
       <c r="F177" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
@@ -18464,25 +18415,29 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>hostility_lethal</t>
         </is>
       </c>
       <c r="K177" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L177" t="n">
-        <v>78</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>84</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
       <c r="N177" t="n">
         <v>79</v>
       </c>
       <c r="O177" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P177" t="n">
         <v>31</v>
@@ -18519,45 +18474,49 @@
         <v>31</v>
       </c>
       <c r="C178" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>hostility_lethal</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F178" t="n">
-        <v>78</v>
-      </c>
-      <c r="G178" t="inlineStr"/>
+        <v>84</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
       <c r="H178" t="inlineStr">
         <is>
           <t>Thorgeir</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>last_seen</t>
         </is>
       </c>
       <c r="K178" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L178" t="n">
-        <v>80</v>
+        <v>84.5</v>
       </c>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O178" t="n">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="P178" t="n">
         <v>31</v>
@@ -18591,76 +18550,76 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C179" t="n">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>giftgiving</t>
+          <t>origin</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>80</v>
+        <v>62.5</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Thorgeir</t>
+          <t>Eyvind's servant boy</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>hostility_lethal</t>
+          <t>offer assistance</t>
         </is>
       </c>
       <c r="K179" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L179" t="n">
-        <v>999</v>
+        <v>63</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>456</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="O179" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="P179" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>Thorgeir</t>
+          <t>Eyvind's servant boy</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>#6B8E23</t>
+          <t>#FF4500</t>
         </is>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>olivedrab</t>
+          <t>orangered</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U179" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V179" t="inlineStr"/>
       <c r="W179" t="inlineStr"/>
@@ -18670,76 +18629,80 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C180" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>hostility_lethal</t>
+          <t>offer assistance</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F180" t="n">
-        <v>999</v>
+        <v>63</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>456</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Thorgeir</t>
+          <t>Eyvind's servant boy</t>
         </is>
       </c>
       <c r="I180" t="n">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>last_seen</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="K180" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L180" t="n">
-        <v>999.5</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
       <c r="N180" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="O180" t="n">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="P180" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>Thorgeir</t>
+          <t>Eyvind's servant boy</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>#6B8E23</t>
+          <t>#FF4500</t>
         </is>
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>olivedrab</t>
+          <t>orangered</t>
         </is>
       </c>
       <c r="T180" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U180" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V180" t="inlineStr"/>
       <c r="W180" t="inlineStr"/>
@@ -18752,49 +18715,53 @@
         <v>35</v>
       </c>
       <c r="C181" t="n">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>origin</t>
+          <t>provide information</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F181" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="G181" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
       <c r="H181" t="inlineStr">
         <is>
           <t>Eyvind's servant boy</t>
         </is>
       </c>
       <c r="I181" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>offer assistance</t>
+          <t>request assistance</t>
         </is>
       </c>
       <c r="K181" t="n">
         <v>14</v>
       </c>
       <c r="L181" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>459</t>
         </is>
       </c>
       <c r="N181" t="n">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="O181" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="P181" t="n">
         <v>35</v>
@@ -18831,22 +18798,22 @@
         <v>35</v>
       </c>
       <c r="C182" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>offer assistance</t>
+          <t>request assistance</t>
         </is>
       </c>
       <c r="E182" t="n">
         <v>14</v>
       </c>
       <c r="F182" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>459</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -18855,29 +18822,25 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>last_seen</t>
         </is>
       </c>
       <c r="K182" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L182" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>70</v>
       </c>
-      <c r="M182" t="inlineStr">
-        <is>
-          <t>458</t>
-        </is>
-      </c>
-      <c r="N182" t="n">
-        <v>65</v>
-      </c>
       <c r="O182" t="n">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="P182" t="n">
         <v>35</v>
@@ -18911,80 +18874,76 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C183" t="n">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>provide information</t>
+          <t>origin</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>70</v>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>458</t>
-        </is>
-      </c>
+        <v>63.5</v>
+      </c>
+      <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Eyvind's servant boy</t>
+          <t>Servant woman</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>insult</t>
         </is>
       </c>
       <c r="K183" t="n">
         <v>14</v>
       </c>
       <c r="L183" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="O183" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P183" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>Eyvind's servant boy</t>
+          <t>Servant woman</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>#FF4500</t>
+          <t>#CD853F</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>orangered</t>
+          <t>peru</t>
         </is>
       </c>
       <c r="T183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V183" t="inlineStr"/>
       <c r="W183" t="inlineStr"/>
@@ -18994,34 +18953,34 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C184" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>request assistance</t>
+          <t>insult</t>
         </is>
       </c>
       <c r="E184" t="n">
         <v>14</v>
       </c>
       <c r="F184" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Eyvind's servant boy</t>
+          <t>Servant woman</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
@@ -19032,38 +18991,38 @@
         <v>17</v>
       </c>
       <c r="L184" t="n">
-        <v>71.5</v>
+        <v>64.5</v>
       </c>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="O184" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P184" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>Eyvind's servant boy</t>
+          <t>Servant woman</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>#FF4500</t>
+          <t>#CD853F</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>orangered</t>
+          <t>peru</t>
         </is>
       </c>
       <c r="T184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V184" t="inlineStr"/>
       <c r="W184" t="inlineStr"/>
@@ -19073,10 +19032,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C185" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -19087,27 +19046,27 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>63.5</v>
+        <v>65.5</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Servant woman</t>
+          <t>Sighvat</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>insult</t>
+          <t>summons</t>
         </is>
       </c>
       <c r="K185" t="n">
         <v>14</v>
       </c>
       <c r="L185" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
@@ -19115,36 +19074,38 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O185" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P185" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>Servant woman</t>
+          <t>Sighvat</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>#CD853F</t>
+          <t>#A9A9A9</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t>peru</t>
+          <t>darkgray</t>
         </is>
       </c>
       <c r="T185" t="n">
+        <v>0</v>
+      </c>
+      <c r="U185" t="n">
         <v>1</v>
       </c>
-      <c r="U185" t="n">
-        <v>0</v>
-      </c>
-      <c r="V185" t="inlineStr"/>
+      <c r="V185" t="n">
+        <v>1</v>
+      </c>
       <c r="W185" t="inlineStr"/>
     </row>
     <row r="186">
@@ -19152,21 +19113,21 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C186" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>insult</t>
+          <t>summons</t>
         </is>
       </c>
       <c r="E186" t="n">
         <v>14</v>
       </c>
       <c r="F186" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -19175,11 +19136,11 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Servant woman</t>
+          <t>Sighvat</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -19190,40 +19151,42 @@
         <v>17</v>
       </c>
       <c r="L186" t="n">
-        <v>64.5</v>
+        <v>66.5</v>
       </c>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O186" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P186" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>Servant woman</t>
+          <t>Sighvat</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>#CD853F</t>
+          <t>#A9A9A9</t>
         </is>
       </c>
       <c r="S186" t="inlineStr">
         <is>
-          <t>peru</t>
+          <t>darkgray</t>
         </is>
       </c>
       <c r="T186" t="n">
+        <v>0</v>
+      </c>
+      <c r="U186" t="n">
         <v>1</v>
       </c>
-      <c r="U186" t="n">
-        <v>0</v>
-      </c>
-      <c r="V186" t="inlineStr"/>
+      <c r="V186" t="n">
+        <v>1</v>
+      </c>
       <c r="W186" t="inlineStr"/>
     </row>
     <row r="187">
@@ -19231,10 +19194,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C187" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -19245,16 +19208,16 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>65.5</v>
+        <v>66.5</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Sighvat</t>
+          <t>Snorri</t>
         </is>
       </c>
       <c r="I187" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
@@ -19265,35 +19228,35 @@
         <v>14</v>
       </c>
       <c r="L187" t="n">
+        <v>67</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>104</v>
+      </c>
+      <c r="O187" t="n">
         <v>66</v>
       </c>
-      <c r="M187" t="inlineStr">
-        <is>
-          <t>457</t>
-        </is>
-      </c>
-      <c r="N187" t="n">
-        <v>106</v>
-      </c>
-      <c r="O187" t="n">
-        <v>68</v>
-      </c>
       <c r="P187" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>Sighvat</t>
+          <t>Snorri</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>#A9A9A9</t>
+          <t>#808080</t>
         </is>
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>darkgray</t>
+          <t>gray</t>
         </is>
       </c>
       <c r="T187" t="n">
@@ -19312,10 +19275,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C188" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -19326,7 +19289,7 @@
         <v>14</v>
       </c>
       <c r="F188" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -19335,11 +19298,11 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Sighvat</t>
+          <t>Snorri</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -19350,31 +19313,31 @@
         <v>17</v>
       </c>
       <c r="L188" t="n">
-        <v>66.5</v>
+        <v>67.5</v>
       </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O188" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P188" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>Sighvat</t>
+          <t>Snorri</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>#A9A9A9</t>
+          <t>#808080</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>darkgray</t>
+          <t>gray</t>
         </is>
       </c>
       <c r="T188" t="n">
@@ -19393,10 +19356,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C189" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -19407,16 +19370,16 @@
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>66.5</v>
+        <v>67.5</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Snorri</t>
+          <t>Thord</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
@@ -19427,35 +19390,35 @@
         <v>14</v>
       </c>
       <c r="L189" t="n">
+        <v>68</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>105</v>
+      </c>
+      <c r="O189" t="n">
         <v>67</v>
       </c>
-      <c r="M189" t="inlineStr">
-        <is>
-          <t>457</t>
-        </is>
-      </c>
-      <c r="N189" t="n">
-        <v>107</v>
-      </c>
-      <c r="O189" t="n">
-        <v>69</v>
-      </c>
       <c r="P189" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>Snorri</t>
+          <t>Thord</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>#808080</t>
+          <t>#D3D3D3</t>
         </is>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>gray</t>
+          <t>lightgray</t>
         </is>
       </c>
       <c r="T189" t="n">
@@ -19474,10 +19437,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C190" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -19488,7 +19451,7 @@
         <v>14</v>
       </c>
       <c r="F190" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -19497,11 +19460,11 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Snorri</t>
+          <t>Thord</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -19512,31 +19475,31 @@
         <v>17</v>
       </c>
       <c r="L190" t="n">
-        <v>67.5</v>
+        <v>68.5</v>
       </c>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O190" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P190" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>Snorri</t>
+          <t>Thord</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>#808080</t>
+          <t>#D3D3D3</t>
         </is>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>gray</t>
+          <t>lightgray</t>
         </is>
       </c>
       <c r="T190" t="n">
@@ -19555,10 +19518,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C191" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -19569,16 +19532,16 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>67.5</v>
+        <v>68.5</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Thord</t>
+          <t>Halli</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
@@ -19589,35 +19552,35 @@
         <v>14</v>
       </c>
       <c r="L191" t="n">
+        <v>69</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>106</v>
+      </c>
+      <c r="O191" t="n">
         <v>68</v>
       </c>
-      <c r="M191" t="inlineStr">
-        <is>
-          <t>457</t>
-        </is>
-      </c>
-      <c r="N191" t="n">
-        <v>108</v>
-      </c>
-      <c r="O191" t="n">
-        <v>70</v>
-      </c>
       <c r="P191" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>Thord</t>
+          <t>Halli</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>#D3D3D3</t>
+          <t>#C0C0C0</t>
         </is>
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t>lightgray</t>
+          <t>silver</t>
         </is>
       </c>
       <c r="T191" t="n">
@@ -19636,10 +19599,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C192" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -19650,7 +19613,7 @@
         <v>14</v>
       </c>
       <c r="F192" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -19659,11 +19622,11 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Thord</t>
+          <t>Halli</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
@@ -19674,31 +19637,31 @@
         <v>17</v>
       </c>
       <c r="L192" t="n">
-        <v>68.5</v>
+        <v>69.5</v>
       </c>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O192" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P192" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>Thord</t>
+          <t>Halli</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>#D3D3D3</t>
+          <t>#C0C0C0</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>lightgray</t>
+          <t>silver</t>
         </is>
       </c>
       <c r="T192" t="n">
@@ -19711,168 +19674,6 @@
         <v>1</v>
       </c>
       <c r="W192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>42</v>
-      </c>
-      <c r="C193" t="n">
-        <v>109</v>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>origin</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>0</v>
-      </c>
-      <c r="F193" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>Halli</t>
-        </is>
-      </c>
-      <c r="I193" t="n">
-        <v>71</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>summons</t>
-        </is>
-      </c>
-      <c r="K193" t="n">
-        <v>14</v>
-      </c>
-      <c r="L193" t="n">
-        <v>69</v>
-      </c>
-      <c r="M193" t="inlineStr">
-        <is>
-          <t>457</t>
-        </is>
-      </c>
-      <c r="N193" t="n">
-        <v>109</v>
-      </c>
-      <c r="O193" t="n">
-        <v>71</v>
-      </c>
-      <c r="P193" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q193" t="inlineStr">
-        <is>
-          <t>Halli</t>
-        </is>
-      </c>
-      <c r="R193" t="inlineStr">
-        <is>
-          <t>#C0C0C0</t>
-        </is>
-      </c>
-      <c r="S193" t="inlineStr">
-        <is>
-          <t>silver</t>
-        </is>
-      </c>
-      <c r="T193" t="n">
-        <v>0</v>
-      </c>
-      <c r="U193" t="n">
-        <v>1</v>
-      </c>
-      <c r="V193" t="n">
-        <v>1</v>
-      </c>
-      <c r="W193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>42</v>
-      </c>
-      <c r="C194" t="n">
-        <v>71</v>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>summons</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>14</v>
-      </c>
-      <c r="F194" t="n">
-        <v>69</v>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>457</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>Halli</t>
-        </is>
-      </c>
-      <c r="I194" t="n">
-        <v>132</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>last_seen</t>
-        </is>
-      </c>
-      <c r="K194" t="n">
-        <v>17</v>
-      </c>
-      <c r="L194" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-      <c r="N194" t="n">
-        <v>71</v>
-      </c>
-      <c r="O194" t="n">
-        <v>132</v>
-      </c>
-      <c r="P194" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q194" t="inlineStr">
-        <is>
-          <t>Halli</t>
-        </is>
-      </c>
-      <c r="R194" t="inlineStr">
-        <is>
-          <t>#C0C0C0</t>
-        </is>
-      </c>
-      <c r="S194" t="inlineStr">
-        <is>
-          <t>silver</t>
-        </is>
-      </c>
-      <c r="T194" t="n">
-        <v>0</v>
-      </c>
-      <c r="U194" t="n">
-        <v>1</v>
-      </c>
-      <c r="V194" t="n">
-        <v>1</v>
-      </c>
-      <c r="W194" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/exported_python/graph_reduced.xlsx
+++ b/data/exported_python/graph_reduced.xlsx
@@ -3497,7 +3497,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E101" t="n">
         <v>17</v>
@@ -3510,7 +3510,7 @@
         <v>7</v>
       </c>
       <c r="I101" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E102" t="n">
         <v>17</v>
@@ -3539,7 +3539,7 @@
         <v>9</v>
       </c>
       <c r="I102" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103">
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E103" t="n">
         <v>17</v>
@@ -3568,7 +3568,7 @@
         <v>10</v>
       </c>
       <c r="I103" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104">
@@ -3584,7 +3584,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E104" t="n">
         <v>17</v>
@@ -3597,7 +3597,7 @@
         <v>15</v>
       </c>
       <c r="I104" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105">
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E105" t="n">
         <v>17</v>
@@ -3626,7 +3626,7 @@
         <v>18</v>
       </c>
       <c r="I105" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E106" t="n">
         <v>17</v>
@@ -3655,7 +3655,7 @@
         <v>19</v>
       </c>
       <c r="I106" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E107" t="n">
         <v>17</v>
@@ -3684,7 +3684,7 @@
         <v>21</v>
       </c>
       <c r="I107" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108">
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E108" t="n">
         <v>17</v>
@@ -3713,7 +3713,7 @@
         <v>22</v>
       </c>
       <c r="I108" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109">
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E109" t="n">
         <v>17</v>
@@ -3742,7 +3742,7 @@
         <v>23</v>
       </c>
       <c r="I109" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
@@ -3758,7 +3758,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E110" t="n">
         <v>17</v>
@@ -3771,7 +3771,7 @@
         <v>24</v>
       </c>
       <c r="I110" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E111" t="n">
         <v>17</v>
@@ -3800,7 +3800,7 @@
         <v>25</v>
       </c>
       <c r="I111" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E112" t="n">
         <v>17</v>
@@ -3829,7 +3829,7 @@
         <v>26</v>
       </c>
       <c r="I112" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113">
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E113" t="n">
         <v>17</v>
@@ -3858,7 +3858,7 @@
         <v>29</v>
       </c>
       <c r="I113" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114">
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E114" t="n">
         <v>17</v>
@@ -3887,7 +3887,7 @@
         <v>31</v>
       </c>
       <c r="I114" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115">
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E115" t="n">
         <v>17</v>
@@ -3916,7 +3916,7 @@
         <v>35</v>
       </c>
       <c r="I115" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116">
